--- a/gas_prod.xlsx
+++ b/gas_prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\natural-gas\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{62558B59-8E62-46E1-8601-2FB9CED9C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0CA6AA-F33C-446C-A86D-69FB95AD33AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods Méthodes" sheetId="22" r:id="rId1"/>
@@ -2766,9 +2766,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3405,7 +3403,9 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3545,7 +3545,7 @@
         <v>9014.677419354839</v>
       </c>
       <c r="H10" s="27">
-        <v>279974.05806451617</v>
+        <v>280010.09999999998</v>
       </c>
       <c r="I10" s="28">
         <v>157082.34193548383</v>
@@ -3554,8 +3554,8 @@
         <v>169.68801612903226</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" ref="K10:K33" si="0">SUM(D10:J10)</f>
-        <v>446770.81382258068</v>
+        <f t="shared" ref="K10:K38" si="0">SUM(D10:J10)</f>
+        <v>446806.85575806448</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
@@ -3580,7 +3580,7 @@
         <v>8425.9285714285706</v>
       </c>
       <c r="H11" s="29">
-        <v>271334.57500000001</v>
+        <v>271371.71428571432</v>
       </c>
       <c r="I11" s="31">
         <v>157801.77500000002</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="K11" s="32">
         <f t="shared" si="0"/>
-        <v>438234.05882142863</v>
+        <v>438271.19810714293</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
@@ -3614,7 +3614,7 @@
         <v>9084.1870967741925</v>
       </c>
       <c r="H12" s="29">
-        <v>285837.40645161294</v>
+        <v>285873.81612903235</v>
       </c>
       <c r="I12" s="31">
         <v>158179.13225806449</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K12" s="32">
         <f t="shared" si="0"/>
-        <v>453753.46245161293</v>
+        <v>453789.87212903227</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
@@ -3648,7 +3648,7 @@
         <v>9408.9333333333325</v>
       </c>
       <c r="H13" s="29">
-        <v>287393.26333333331</v>
+        <v>287413.99333333335</v>
       </c>
       <c r="I13" s="31">
         <v>161376.40000000002</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="K13" s="32">
         <f t="shared" si="0"/>
-        <v>458810.48394999997</v>
+        <v>458831.21395</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
@@ -3682,7 +3682,7 @@
         <v>9203.3645161290315</v>
       </c>
       <c r="H14" s="29">
-        <v>282234.43225806451</v>
+        <v>282263.20645161293</v>
       </c>
       <c r="I14" s="31">
         <v>157110.67096774193</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="K14" s="32">
         <f t="shared" si="0"/>
-        <v>448934.75464516127</v>
+        <v>448963.5288387097</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -3716,7 +3716,7 @@
         <v>8760.4866666666676</v>
       </c>
       <c r="H15" s="29">
-        <v>279427.30333333329</v>
+        <v>279415.53666666662</v>
       </c>
       <c r="I15" s="31">
         <v>157099.85</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="K15" s="32">
         <f t="shared" si="0"/>
-        <v>445659.87568333332</v>
+        <v>445648.1090166666</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
@@ -3750,7 +3750,7 @@
         <v>8979.1064516129027</v>
       </c>
       <c r="H16" s="29">
-        <v>285366.16774193547</v>
+        <v>285369.1451612903</v>
       </c>
       <c r="I16" s="31">
         <v>159039.3322580645</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="K16" s="32">
         <f t="shared" si="0"/>
-        <v>453647.1739193548</v>
+        <v>453650.15133870963</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
@@ -3787,7 +3787,7 @@
         <v>8925.0548387096769</v>
       </c>
       <c r="H17" s="29">
-        <v>289244.35806451616</v>
+        <v>289231.51935483865</v>
       </c>
       <c r="I17" s="31">
         <v>164678.11935483859</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="K17" s="32">
         <f t="shared" si="0"/>
-        <v>463046.42482258053</v>
+        <v>463033.58611290308</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
@@ -3821,7 +3821,7 @@
         <v>9085.130000000001</v>
       </c>
       <c r="H18" s="29">
-        <v>283819.53333333333</v>
+        <v>283808.05</v>
       </c>
       <c r="I18" s="31">
         <v>167572.83666666667</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="K18" s="32">
         <f t="shared" si="0"/>
-        <v>460824.62625000003</v>
+        <v>460813.14291666669</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
@@ -3855,7 +3855,7 @@
         <v>9162.4483870967761</v>
       </c>
       <c r="H19" s="29">
-        <v>290243.50645161292</v>
+        <v>290234.95483870961</v>
       </c>
       <c r="I19" s="31">
         <v>161504.564516129</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="K19" s="32">
         <f t="shared" si="0"/>
-        <v>461276.37874193548</v>
+        <v>461267.82712903211</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
@@ -3889,7 +3889,7 @@
         <v>9116.4999999999982</v>
       </c>
       <c r="H20" s="29">
-        <v>295397.29666666669</v>
+        <v>295358.92333333334</v>
       </c>
       <c r="I20" s="31">
         <v>171982.53</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="K20" s="32">
         <f t="shared" si="0"/>
-        <v>477123.44640000002</v>
+        <v>477085.07306666661</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
@@ -3923,7 +3923,7 @@
         <v>8736.7612903225818</v>
       </c>
       <c r="H21" s="31">
-        <v>286651.87741935492</v>
+        <v>286711.28709677415</v>
       </c>
       <c r="I21" s="31">
         <v>170788.31935483869</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="K21" s="32">
         <f t="shared" si="0"/>
-        <v>466889.62551612913</v>
+        <v>466949.03519354836</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="16"/>
@@ -4344,16 +4344,29 @@
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="29">
+        <v>167.70967741935485</v>
+      </c>
+      <c r="G34" s="31">
+        <v>8512.4354838709678</v>
+      </c>
       <c r="H34" s="29">
-        <v>314219.43225806457</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
+        <v>313549.19354838709</v>
+      </c>
+      <c r="I34" s="31">
+        <v>188007.60645161287</v>
+      </c>
+      <c r="J34" s="31">
+        <v>136.75872580645165</v>
+      </c>
+      <c r="K34" s="32">
+        <f t="shared" si="0"/>
+        <v>510373.70388709666</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="16"/>
       <c r="Q34" s="17"/>
@@ -4363,16 +4376,29 @@
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="29">
+        <v>153.14285714285717</v>
+      </c>
+      <c r="G35" s="31">
+        <v>8769.9499999999989</v>
+      </c>
       <c r="H35" s="29">
-        <v>315135.01428571425</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
+        <v>314829.96071428573</v>
+      </c>
+      <c r="I35" s="31">
+        <v>184297.59999999995</v>
+      </c>
+      <c r="J35" s="31">
+        <v>136.52096428571429</v>
+      </c>
+      <c r="K35" s="32">
+        <f t="shared" si="0"/>
+        <v>508187.17453571421</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
       <c r="Q35" s="17"/>
@@ -4382,14 +4408,29 @@
       <c r="C36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
       <c r="E36" s="31"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
+      <c r="F36" s="29">
+        <v>163.2258064516129</v>
+      </c>
+      <c r="G36" s="31">
+        <v>8619.1290322580644</v>
+      </c>
+      <c r="H36" s="29">
+        <v>313197.24193548382</v>
+      </c>
+      <c r="I36" s="31">
+        <v>190282.23225806435</v>
+      </c>
+      <c r="J36" s="31">
+        <v>131.42491935483872</v>
+      </c>
+      <c r="K36" s="32">
+        <f t="shared" si="0"/>
+        <v>512393.25395161274</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="16"/>
       <c r="Q36" s="17"/>
@@ -4399,14 +4440,29 @@
       <c r="C37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
+      <c r="F37" s="29">
+        <v>176.73333333333335</v>
+      </c>
+      <c r="G37" s="31">
+        <v>9056.7033333333311</v>
+      </c>
+      <c r="H37" s="29">
+        <v>313905.48333333334</v>
+      </c>
+      <c r="I37" s="31">
+        <v>193214.95333333334</v>
+      </c>
+      <c r="J37" s="31">
+        <v>148.0009</v>
+      </c>
+      <c r="K37" s="32">
+        <f t="shared" si="0"/>
+        <v>516501.87423333328</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
       <c r="Q37" s="17"/>
@@ -4416,14 +4472,27 @@
       <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
       <c r="E38" s="31"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
+      <c r="G38" s="31">
+        <v>8872.4419354838701</v>
+      </c>
+      <c r="H38" s="29">
+        <v>274525.80645161291</v>
+      </c>
+      <c r="I38" s="31">
+        <v>185487.10000000003</v>
+      </c>
+      <c r="J38" s="31">
+        <v>139.51614516129032</v>
+      </c>
+      <c r="K38" s="32">
+        <f t="shared" si="0"/>
+        <v>469024.86453225813</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="16"/>
       <c r="Q38" s="17"/>
@@ -4437,7 +4506,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="29"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="29"/>
+      <c r="H39" s="29">
+        <v>291229.44333333342</v>
+      </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
       <c r="K39" s="32"/>
@@ -4559,7 +4630,7 @@
         <v>120</v>
       </c>
       <c r="K46" s="25">
-        <v>45022</v>
+        <v>45155</v>
       </c>
     </row>
   </sheetData>
@@ -4588,9 +4659,7 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4730,7 +4799,7 @@
         <v>318.3497271935484</v>
       </c>
       <c r="H10" s="27">
-        <v>9887.1718709251618</v>
+        <v>9888.4446774599983</v>
       </c>
       <c r="I10" s="28">
         <v>5547.3000725148377</v>
@@ -4739,8 +4808,8 @@
         <v>5.9924644143903221</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" ref="K10:K33" si="0">SUM(D10:J10)</f>
-        <v>15777.532581818907</v>
+        <f t="shared" ref="K10:K36" si="0">SUM(D10:J10)</f>
+        <v>15778.805388353743</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
@@ -4765,7 +4834,7 @@
         <v>297.55829712857138</v>
       </c>
       <c r="H11" s="29">
-        <v>9582.0719822950014</v>
+        <v>9583.3835413142879</v>
       </c>
       <c r="I11" s="31">
         <v>5572.7065634150003</v>
@@ -4775,7 +4844,7 @@
       </c>
       <c r="K11" s="32">
         <f t="shared" si="0"/>
-        <v>15476.060493655223</v>
+        <v>15477.372052674509</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
@@ -4799,7 +4868,7 @@
         <v>320.80443364774186</v>
       </c>
       <c r="H12" s="29">
-        <v>10094.23367387613</v>
+        <v>10095.519467070324</v>
       </c>
       <c r="I12" s="31">
         <v>5586.0327840406444</v>
@@ -4809,7 +4878,7 @@
       </c>
       <c r="K12" s="32">
         <f t="shared" si="0"/>
-        <v>16024.122025093729</v>
+        <v>16025.407818287924</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
@@ -4833,7 +4902,7 @@
         <v>332.27271709333326</v>
       </c>
       <c r="H13" s="29">
-        <v>10149.178137311332</v>
+        <v>10149.910208969333</v>
       </c>
       <c r="I13" s="31">
         <v>5698.9430154400006</v>
@@ -4843,7 +4912,7 @@
       </c>
       <c r="K13" s="32">
         <f t="shared" si="0"/>
-        <v>16202.708716500669</v>
+        <v>16203.440788158672</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
@@ -4867,7 +4936,7 @@
         <v>325.01313654129029</v>
       </c>
       <c r="H14" s="29">
-        <v>9966.9960814206443</v>
+        <v>9968.012230556129</v>
       </c>
       <c r="I14" s="31">
         <v>5548.300500957419</v>
@@ -4877,7 +4946,7 @@
       </c>
       <c r="K14" s="32">
         <f t="shared" si="0"/>
-        <v>15853.951286392012</v>
+        <v>15854.967435527496</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4901,7 +4970,7 @@
         <v>309.37308243866664</v>
       </c>
       <c r="H15" s="29">
-        <v>9867.8634462953305</v>
+        <v>9867.4479111686651</v>
       </c>
       <c r="I15" s="31">
         <v>5547.91836281</v>
@@ -4911,7 +4980,7 @@
       </c>
       <c r="K15" s="32">
         <f t="shared" si="0"/>
-        <v>15738.30024580664</v>
+        <v>15737.884710679975</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
@@ -4935,7 +5004,7 @@
         <v>317.093552696129</v>
       </c>
       <c r="H16" s="29">
-        <v>10077.592067339352</v>
+        <v>10077.697213712901</v>
       </c>
       <c r="I16" s="31">
         <v>5616.4104029606442</v>
@@ -4945,7 +5014,7 @@
       </c>
       <c r="K16" s="32">
         <f t="shared" si="0"/>
-        <v>16020.368488092445</v>
+        <v>16020.473634465994</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
@@ -4972,7 +5041,7 @@
         <v>315.18474160709673</v>
       </c>
       <c r="H17" s="29">
-        <v>10214.548807305162</v>
+        <v>10214.095413408386</v>
       </c>
       <c r="I17" s="31">
         <v>5815.541913768383</v>
@@ -4982,7 +5051,7 @@
       </c>
       <c r="K17" s="32">
         <f t="shared" si="0"/>
-        <v>16352.299274039504</v>
+        <v>16351.845880142728</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
@@ -5006,7 +5075,7 @@
         <v>320.83773189800002</v>
       </c>
       <c r="H18" s="29">
-        <v>10022.973291853332</v>
+        <v>10022.56776253</v>
       </c>
       <c r="I18" s="31">
         <v>5917.7676977486663</v>
@@ -5016,7 +5085,7 @@
       </c>
       <c r="K18" s="32">
         <f t="shared" si="0"/>
-        <v>16273.837346168248</v>
+        <v>16273.431816844915</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
@@ -5040,7 +5109,7 @@
         <v>323.56819981096777</v>
       </c>
       <c r="H19" s="29">
-        <v>10249.833332936128</v>
+        <v>10249.531336147094</v>
       </c>
       <c r="I19" s="31">
         <v>5703.4690940612891</v>
@@ -5050,7 +5119,7 @@
       </c>
       <c r="K19" s="32">
         <f t="shared" si="0"/>
-        <v>16289.790804719953</v>
+        <v>16289.488807930918</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
@@ -5074,7 +5143,7 @@
         <v>321.94555089999994</v>
       </c>
       <c r="H20" s="29">
-        <v>10431.837372864667</v>
+        <v>10430.482233947334</v>
       </c>
       <c r="I20" s="31">
         <v>6073.4942539379999</v>
@@ -5084,7 +5153,7 @@
       </c>
       <c r="K20" s="32">
         <f t="shared" si="0"/>
-        <v>16849.42366023744</v>
+        <v>16848.068521320107</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
@@ -5108,7 +5177,7 @@
         <v>308.5352302632258</v>
       </c>
       <c r="H21" s="31">
-        <v>10122.99639031355</v>
+        <v>10125.094419307739</v>
       </c>
       <c r="I21" s="31">
         <v>6031.3211826883871</v>
@@ -5118,7 +5187,7 @@
       </c>
       <c r="K21" s="32">
         <f t="shared" si="0"/>
-        <v>16488.020369251892</v>
+        <v>16490.118398246079</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="16"/>
@@ -5489,74 +5558,143 @@
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="29">
+        <v>5.9226001741935486</v>
+      </c>
+      <c r="G34" s="31">
+        <v>300.61325413870969</v>
+      </c>
       <c r="H34" s="29">
-        <v>11096.533562420645</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
+        <v>11072.864350483871</v>
+      </c>
+      <c r="I34" s="31">
+        <v>6639.4134187961281</v>
+      </c>
+      <c r="J34" s="31">
+        <v>4.8295796983645172</v>
+      </c>
+      <c r="K34" s="32">
+        <f t="shared" si="0"/>
+        <v>18023.643203291271</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="29">
+        <v>5.4081787428571433</v>
+      </c>
+      <c r="G35" s="31">
+        <v>309.70727626999997</v>
+      </c>
       <c r="H35" s="29">
-        <v>11128.866975494284</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
+        <v>11118.094130640715</v>
+      </c>
+      <c r="I35" s="31">
+        <v>6508.3960249599986</v>
+      </c>
+      <c r="J35" s="31">
+        <v>4.8211832453642858</v>
+      </c>
+      <c r="K35" s="32">
+        <f t="shared" si="0"/>
+        <v>17946.426793858936</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
       <c r="E36" s="31"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
+      <c r="F36" s="29">
+        <v>5.7642540645161287</v>
+      </c>
+      <c r="G36" s="31">
+        <v>304.38109412258063</v>
+      </c>
+      <c r="H36" s="29">
+        <v>11060.435320054836</v>
+      </c>
+      <c r="I36" s="31">
+        <v>6719.7409193006388</v>
+      </c>
+      <c r="J36" s="31">
+        <v>4.641218457048387</v>
+      </c>
+      <c r="K36" s="32">
+        <f t="shared" si="0"/>
+        <v>18094.962805999621</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
+      <c r="F37" s="29">
+        <v>6.2412669733333335</v>
+      </c>
+      <c r="G37" s="31">
+        <v>319.83385553533327</v>
+      </c>
+      <c r="H37" s="29">
+        <v>11085.446581723332</v>
+      </c>
+      <c r="I37" s="31">
+        <v>6823.308790985333</v>
+      </c>
+      <c r="J37" s="31">
+        <v>5.2265925831399995</v>
+      </c>
+      <c r="K37" s="32">
+        <f>SUM(D37:J37)</f>
+        <v>18240.057087800473</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
       <c r="E38" s="31"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
+      <c r="G38" s="31">
+        <v>313.32673797483869</v>
+      </c>
+      <c r="H38" s="29">
+        <v>9694.7690445161297</v>
+      </c>
+      <c r="I38" s="31">
+        <v>6550.4027416600011</v>
+      </c>
+      <c r="J38" s="31">
+        <v>4.9269568599129032</v>
+      </c>
+      <c r="K38" s="32">
+        <f>SUM(D38:J38)</f>
+        <v>16563.425481010883</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
@@ -5567,7 +5705,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="29"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="29"/>
+      <c r="H39" s="29">
+        <v>10284.651299539335</v>
+      </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
       <c r="K39" s="32"/>
@@ -5668,7 +5808,7 @@
         <v>120</v>
       </c>
       <c r="K46" s="25">
-        <v>45022</v>
+        <v>45155</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5836,7 @@
   <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="L288" sqref="L288"/>
+      <selection activeCell="H292" sqref="H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12645,7 +12785,7 @@
         <v>182.36379032258063</v>
       </c>
       <c r="K240" s="1">
-        <f t="shared" ref="K240:K287" si="5">SUM(C240:I240)</f>
+        <f t="shared" ref="K240:K292" si="5">SUM(C240:I240)</f>
         <v>453767.596048387</v>
       </c>
     </row>
@@ -13356,7 +13496,7 @@
         <v>9014.677419354839</v>
       </c>
       <c r="G264" s="1">
-        <v>279974.05806451617</v>
+        <v>280010.09999999998</v>
       </c>
       <c r="H264" s="1">
         <v>157082.34193548383</v>
@@ -13366,7 +13506,7 @@
       </c>
       <c r="K264" s="1">
         <f t="shared" si="5"/>
-        <v>446770.81382258068</v>
+        <v>446806.85575806448</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -13386,7 +13526,7 @@
         <v>8425.9285714285706</v>
       </c>
       <c r="G265" s="1">
-        <v>271334.57500000001</v>
+        <v>271371.71428571432</v>
       </c>
       <c r="H265" s="1">
         <v>157801.77500000002</v>
@@ -13396,7 +13536,7 @@
       </c>
       <c r="K265" s="1">
         <f t="shared" si="5"/>
-        <v>438234.05882142863</v>
+        <v>438271.19810714293</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -13416,7 +13556,7 @@
         <v>9084.1870967741925</v>
       </c>
       <c r="G266" s="1">
-        <v>285837.40645161294</v>
+        <v>285873.81612903235</v>
       </c>
       <c r="H266" s="1">
         <v>158179.13225806449</v>
@@ -13426,7 +13566,7 @@
       </c>
       <c r="K266" s="1">
         <f t="shared" si="5"/>
-        <v>453753.46245161293</v>
+        <v>453789.87212903227</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -13446,7 +13586,7 @@
         <v>9408.9333333333325</v>
       </c>
       <c r="G267" s="1">
-        <v>287393.26333333331</v>
+        <v>287413.99333333335</v>
       </c>
       <c r="H267" s="1">
         <v>161376.40000000002</v>
@@ -13456,7 +13596,7 @@
       </c>
       <c r="K267" s="1">
         <f t="shared" si="5"/>
-        <v>458810.48394999997</v>
+        <v>458831.21395</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -13476,7 +13616,7 @@
         <v>9203.3645161290315</v>
       </c>
       <c r="G268" s="1">
-        <v>282234.43225806451</v>
+        <v>282263.20645161293</v>
       </c>
       <c r="H268" s="1">
         <v>157110.67096774193</v>
@@ -13486,7 +13626,7 @@
       </c>
       <c r="K268" s="1">
         <f t="shared" si="5"/>
-        <v>448934.75464516127</v>
+        <v>448963.5288387097</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -13506,7 +13646,7 @@
         <v>8760.4866666666676</v>
       </c>
       <c r="G269" s="1">
-        <v>279427.30333333329</v>
+        <v>279415.53666666662</v>
       </c>
       <c r="H269" s="1">
         <v>157099.85</v>
@@ -13516,7 +13656,7 @@
       </c>
       <c r="K269" s="1">
         <f t="shared" si="5"/>
-        <v>445659.87568333332</v>
+        <v>445648.1090166666</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -13536,7 +13676,7 @@
         <v>8979.1064516129027</v>
       </c>
       <c r="G270" s="1">
-        <v>285366.16774193547</v>
+        <v>285369.1451612903</v>
       </c>
       <c r="H270" s="1">
         <v>159039.3322580645</v>
@@ -13546,7 +13686,7 @@
       </c>
       <c r="K270" s="1">
         <f t="shared" si="5"/>
-        <v>453647.1739193548</v>
+        <v>453650.15133870963</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -13566,7 +13706,7 @@
         <v>8925.0548387096769</v>
       </c>
       <c r="G271" s="1">
-        <v>289244.35806451616</v>
+        <v>289231.51935483865</v>
       </c>
       <c r="H271" s="1">
         <v>164678.11935483859</v>
@@ -13576,7 +13716,7 @@
       </c>
       <c r="K271" s="1">
         <f t="shared" si="5"/>
-        <v>463046.42482258053</v>
+        <v>463033.58611290308</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -13596,7 +13736,7 @@
         <v>9085.130000000001</v>
       </c>
       <c r="G272" s="1">
-        <v>283819.53333333333</v>
+        <v>283808.05</v>
       </c>
       <c r="H272" s="1">
         <v>167572.83666666667</v>
@@ -13606,7 +13746,7 @@
       </c>
       <c r="K272" s="1">
         <f t="shared" si="5"/>
-        <v>460824.62625000003</v>
+        <v>460813.14291666669</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -13626,7 +13766,7 @@
         <v>9162.4483870967761</v>
       </c>
       <c r="G273" s="1">
-        <v>290243.50645161292</v>
+        <v>290234.95483870961</v>
       </c>
       <c r="H273" s="1">
         <v>161504.564516129</v>
@@ -13636,7 +13776,7 @@
       </c>
       <c r="K273" s="1">
         <f t="shared" si="5"/>
-        <v>461276.37874193548</v>
+        <v>461267.82712903211</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -13656,7 +13796,7 @@
         <v>9116.4999999999982</v>
       </c>
       <c r="G274" s="1">
-        <v>295397.29666666669</v>
+        <v>295358.92333333334</v>
       </c>
       <c r="H274" s="1">
         <v>171982.53</v>
@@ -13666,7 +13806,7 @@
       </c>
       <c r="K274" s="1">
         <f t="shared" si="5"/>
-        <v>477123.44640000002</v>
+        <v>477085.07306666661</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -13686,7 +13826,7 @@
         <v>8736.7612903225818</v>
       </c>
       <c r="G275" s="1">
-        <v>286651.87741935492</v>
+        <v>286711.28709677415</v>
       </c>
       <c r="H275" s="1">
         <v>170788.31935483869</v>
@@ -13696,7 +13836,7 @@
       </c>
       <c r="K275" s="1">
         <f t="shared" si="5"/>
-        <v>466889.62551612913</v>
+        <v>466949.03519354836</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -14039,64 +14179,168 @@
       <c r="A288" s="6">
         <v>44927</v>
       </c>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+      <c r="E288" s="1">
+        <v>167.70967741935485</v>
+      </c>
+      <c r="F288" s="1">
+        <v>8512.4354838709678</v>
+      </c>
       <c r="G288" s="1">
-        <v>314219.43225806457</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+        <v>313549.19354838709</v>
+      </c>
+      <c r="H288" s="1">
+        <v>188007.60645161287</v>
+      </c>
+      <c r="I288" s="1">
+        <v>136.75872580645165</v>
+      </c>
+      <c r="K288" s="1">
+        <f t="shared" si="5"/>
+        <v>510373.70388709666</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>44958</v>
       </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+      <c r="E289" s="1">
+        <v>153.14285714285717</v>
+      </c>
+      <c r="F289" s="1">
+        <v>8769.9499999999989</v>
+      </c>
       <c r="G289" s="1">
-        <v>315135.01428571425</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+        <v>314829.96071428573</v>
+      </c>
+      <c r="H289" s="1">
+        <v>184297.59999999995</v>
+      </c>
+      <c r="I289" s="1">
+        <v>136.52096428571429</v>
+      </c>
+      <c r="K289" s="1">
+        <f t="shared" si="5"/>
+        <v>508187.17453571421</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>44986</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="1">
+        <v>163.2258064516129</v>
+      </c>
+      <c r="F290" s="1">
+        <v>8619.1290322580644</v>
+      </c>
+      <c r="G290" s="1">
+        <v>313197.24193548382</v>
+      </c>
+      <c r="H290" s="1">
+        <v>190282.23225806435</v>
+      </c>
+      <c r="I290" s="1">
+        <v>131.42491935483872</v>
+      </c>
+      <c r="K290" s="1">
+        <f t="shared" si="5"/>
+        <v>512393.25395161274</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>45017</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="1">
+        <v>176.73333333333335</v>
+      </c>
+      <c r="F291" s="1">
+        <v>9056.7033333333311</v>
+      </c>
+      <c r="G291" s="1">
+        <v>313905.48333333334</v>
+      </c>
+      <c r="H291" s="1">
+        <v>193214.95333333334</v>
+      </c>
+      <c r="I291" s="1">
+        <v>148.0009</v>
+      </c>
+      <c r="K291" s="1">
+        <f t="shared" si="5"/>
+        <v>516501.87423333328</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>45047</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>8872.4419354838701</v>
+      </c>
+      <c r="G292" s="1">
+        <v>274525.80645161291</v>
+      </c>
+      <c r="H292" s="1">
+        <v>185487.10000000003</v>
+      </c>
+      <c r="I292" s="1">
+        <v>139.51614516129032</v>
+      </c>
+      <c r="K292" s="1">
+        <f t="shared" si="5"/>
+        <v>469024.86453225813</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>45078</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G293" s="1">
+        <v>291229.44333333342</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45108</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45170</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45200</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>45231</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>45261</v>
       </c>
@@ -14110,8 +14354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="K288" sqref="K288"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20577,7 +20821,7 @@
         <v>0.47650217616129031</v>
       </c>
       <c r="K228" s="1">
-        <f t="shared" ref="K228:K287" si="5">SUM(C228:I228)</f>
+        <f t="shared" ref="K228:K292" si="5">SUM(C228:I228)</f>
         <v>16520.729929684676</v>
       </c>
       <c r="M228" s="2" t="s">
@@ -21655,7 +21899,7 @@
         <v>318.3497271935484</v>
       </c>
       <c r="G264" s="1">
-        <v>9887.1718709251618</v>
+        <v>9888.4446774599983</v>
       </c>
       <c r="H264" s="1">
         <v>5547.3000725148377</v>
@@ -21665,7 +21909,7 @@
       </c>
       <c r="K264" s="1">
         <f t="shared" si="5"/>
-        <v>15777.532581818907</v>
+        <v>15778.805388353743</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -21685,7 +21929,7 @@
         <v>297.55829712857138</v>
       </c>
       <c r="G265" s="1">
-        <v>9582.0719822950014</v>
+        <v>9583.3835413142879</v>
       </c>
       <c r="H265" s="1">
         <v>5572.7065634150003</v>
@@ -21695,7 +21939,7 @@
       </c>
       <c r="K265" s="1">
         <f t="shared" si="5"/>
-        <v>15476.060493655223</v>
+        <v>15477.372052674509</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -21715,7 +21959,7 @@
         <v>320.80443364774186</v>
       </c>
       <c r="G266" s="1">
-        <v>10094.23367387613</v>
+        <v>10095.519467070324</v>
       </c>
       <c r="H266" s="1">
         <v>5586.0327840406444</v>
@@ -21725,7 +21969,7 @@
       </c>
       <c r="K266" s="1">
         <f t="shared" si="5"/>
-        <v>16024.122025093729</v>
+        <v>16025.407818287924</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -21745,7 +21989,7 @@
         <v>332.27271709333326</v>
       </c>
       <c r="G267" s="1">
-        <v>10149.178137311332</v>
+        <v>10149.910208969333</v>
       </c>
       <c r="H267" s="1">
         <v>5698.9430154400006</v>
@@ -21755,7 +21999,7 @@
       </c>
       <c r="K267" s="1">
         <f t="shared" si="5"/>
-        <v>16202.708716500669</v>
+        <v>16203.440788158672</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -21775,7 +22019,7 @@
         <v>325.01313654129029</v>
       </c>
       <c r="G268" s="1">
-        <v>9966.9960814206443</v>
+        <v>9968.012230556129</v>
       </c>
       <c r="H268" s="1">
         <v>5548.300500957419</v>
@@ -21785,7 +22029,7 @@
       </c>
       <c r="K268" s="1">
         <f t="shared" si="5"/>
-        <v>15853.951286392012</v>
+        <v>15854.967435527496</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -21805,7 +22049,7 @@
         <v>309.37308243866664</v>
       </c>
       <c r="G269" s="1">
-        <v>9867.8634462953305</v>
+        <v>9867.4479111686651</v>
       </c>
       <c r="H269" s="1">
         <v>5547.91836281</v>
@@ -21815,7 +22059,7 @@
       </c>
       <c r="K269" s="1">
         <f t="shared" si="5"/>
-        <v>15738.30024580664</v>
+        <v>15737.884710679975</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -21835,7 +22079,7 @@
         <v>317.093552696129</v>
       </c>
       <c r="G270" s="1">
-        <v>10077.592067339352</v>
+        <v>10077.697213712901</v>
       </c>
       <c r="H270" s="1">
         <v>5616.4104029606442</v>
@@ -21845,7 +22089,7 @@
       </c>
       <c r="K270" s="1">
         <f t="shared" si="5"/>
-        <v>16020.368488092445</v>
+        <v>16020.473634465994</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -21865,7 +22109,7 @@
         <v>315.18474160709673</v>
       </c>
       <c r="G271" s="1">
-        <v>10214.548807305162</v>
+        <v>10214.095413408386</v>
       </c>
       <c r="H271" s="1">
         <v>5815.541913768383</v>
@@ -21875,7 +22119,7 @@
       </c>
       <c r="K271" s="1">
         <f t="shared" si="5"/>
-        <v>16352.299274039504</v>
+        <v>16351.845880142728</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -21895,7 +22139,7 @@
         <v>320.83773189800002</v>
       </c>
       <c r="G272" s="1">
-        <v>10022.973291853332</v>
+        <v>10022.56776253</v>
       </c>
       <c r="H272" s="1">
         <v>5917.7676977486663</v>
@@ -21905,7 +22149,7 @@
       </c>
       <c r="K272" s="1">
         <f t="shared" si="5"/>
-        <v>16273.837346168248</v>
+        <v>16273.431816844915</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -21925,7 +22169,7 @@
         <v>323.56819981096777</v>
       </c>
       <c r="G273" s="1">
-        <v>10249.833332936128</v>
+        <v>10249.531336147094</v>
       </c>
       <c r="H273" s="1">
         <v>5703.4690940612891</v>
@@ -21935,7 +22179,7 @@
       </c>
       <c r="K273" s="1">
         <f t="shared" si="5"/>
-        <v>16289.790804719953</v>
+        <v>16289.488807930918</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -21955,7 +22199,7 @@
         <v>321.94555089999994</v>
       </c>
       <c r="G274" s="1">
-        <v>10431.837372864667</v>
+        <v>10430.482233947334</v>
       </c>
       <c r="H274" s="1">
         <v>6073.4942539379999</v>
@@ -21965,7 +22209,7 @@
       </c>
       <c r="K274" s="1">
         <f t="shared" si="5"/>
-        <v>16849.42366023744</v>
+        <v>16848.068521320107</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -21985,7 +22229,7 @@
         <v>308.5352302632258</v>
       </c>
       <c r="G275" s="1">
-        <v>10122.99639031355</v>
+        <v>10125.094419307739</v>
       </c>
       <c r="H275" s="1">
         <v>6031.3211826883871</v>
@@ -21995,7 +22239,7 @@
       </c>
       <c r="K275" s="1">
         <f t="shared" si="5"/>
-        <v>16488.020369251892</v>
+        <v>16490.118398246079</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -22338,64 +22582,168 @@
       <c r="A288" s="6">
         <v>44927</v>
       </c>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+      <c r="E288" s="1">
+        <v>5.9226001741935486</v>
+      </c>
+      <c r="F288" s="1">
+        <v>300.61325413870969</v>
+      </c>
       <c r="G288" s="1">
-        <v>11096.533562420645</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11072.864350483871</v>
+      </c>
+      <c r="H288" s="1">
+        <v>6639.4134187961281</v>
+      </c>
+      <c r="I288" s="1">
+        <v>4.8295796983645172</v>
+      </c>
+      <c r="K288" s="1">
+        <f t="shared" si="5"/>
+        <v>18023.643203291271</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>44958</v>
       </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+      <c r="E289" s="1">
+        <v>5.4081787428571433</v>
+      </c>
+      <c r="F289" s="1">
+        <v>309.70727626999997</v>
+      </c>
       <c r="G289" s="1">
-        <v>11128.866975494284</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11118.094130640715</v>
+      </c>
+      <c r="H289" s="1">
+        <v>6508.3960249599986</v>
+      </c>
+      <c r="I289" s="1">
+        <v>4.8211832453642858</v>
+      </c>
+      <c r="K289" s="1">
+        <f t="shared" si="5"/>
+        <v>17946.426793858936</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>44986</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="1">
+        <v>5.7642540645161287</v>
+      </c>
+      <c r="F290" s="1">
+        <v>304.38109412258063</v>
+      </c>
+      <c r="G290" s="1">
+        <v>11060.435320054836</v>
+      </c>
+      <c r="H290" s="1">
+        <v>6719.7409193006388</v>
+      </c>
+      <c r="I290" s="1">
+        <v>4.641218457048387</v>
+      </c>
+      <c r="K290" s="1">
+        <f t="shared" si="5"/>
+        <v>18094.962805999621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>45017</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="1">
+        <v>6.2412669733333335</v>
+      </c>
+      <c r="F291" s="1">
+        <v>319.83385553533327</v>
+      </c>
+      <c r="G291" s="1">
+        <v>11085.446581723332</v>
+      </c>
+      <c r="H291" s="1">
+        <v>6823.308790985333</v>
+      </c>
+      <c r="I291" s="1">
+        <v>5.2265925831399995</v>
+      </c>
+      <c r="K291" s="1">
+        <f t="shared" si="5"/>
+        <v>18240.057087800473</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>45047</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>313.32673797483869</v>
+      </c>
+      <c r="G292" s="1">
+        <v>9694.7690445161297</v>
+      </c>
+      <c r="H292" s="1">
+        <v>6550.4027416600011</v>
+      </c>
+      <c r="I292" s="1">
+        <v>4.9269568599129032</v>
+      </c>
+      <c r="K292" s="1">
+        <f t="shared" si="5"/>
+        <v>16563.425481010883</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>45078</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G293" s="1">
+        <v>10284.651299539335</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45108</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45170</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45200</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>45231</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>45261</v>
       </c>
@@ -22403,4 +22751,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">619</parentID>
+    <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
+    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94ca56df59429f33e9578fc51d07b71b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a936563a2c046556d5fbda508711cd0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <xsd:import namespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:parentID" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:Status" minOccurs="0"/>
+                <xsd:element ref="ns2:Key" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="parentID" ma:index="8" nillable="true" ma:displayName="parentID" ma:internalName="parentID">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="10" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5ff227e3-1287-4ea4-9684-11ab6ab51f50" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Status" ma:index="18" nillable="true" ma:displayName="Status" ma:default="New" ma:format="Dropdown" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="New"/>
+          <xsd:enumeration value="Assigned"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Key" ma:index="19" nillable="true" ma:displayName="Key" ma:decimals="0" ma:description="Unique temp number" ma:internalName="Key" ma:percentage="FALSE">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6fe0f7e7-03c0-4c14-a516-3f40f384aae2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E70FBB1F-4022-4F8D-8935-231F8FBD10D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{903AAC42-9191-4785-BF57-2A4EADC7B9E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5236973-902A-46CB-965C-41EB859DFC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/gas_prod.xlsx
+++ b/gas_prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\natural-gas\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0CA6AA-F33C-446C-A86D-69FB95AD33AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77BA58E-04EB-482A-91E8-6096CC288369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3554,7 +3554,7 @@
         <v>169.68801612903226</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" ref="K10:K38" si="0">SUM(D10:J10)</f>
+        <f t="shared" ref="K10:K40" si="0">SUM(D10:J10)</f>
         <v>446806.85575806448</v>
       </c>
       <c r="L10" s="15"/>
@@ -4352,10 +4352,10 @@
         <v>167.70967741935485</v>
       </c>
       <c r="G34" s="31">
-        <v>8512.4354838709678</v>
+        <v>8512.177419354839</v>
       </c>
       <c r="H34" s="29">
-        <v>313549.19354838709</v>
+        <v>313495.44516129029</v>
       </c>
       <c r="I34" s="31">
         <v>188007.60645161287</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="K34" s="32">
         <f t="shared" si="0"/>
-        <v>510373.70388709666</v>
+        <v>510319.69743548374</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="16"/>
@@ -4384,10 +4384,10 @@
         <v>153.14285714285717</v>
       </c>
       <c r="G35" s="31">
-        <v>8769.9499999999989</v>
+        <v>8765.2500000000018</v>
       </c>
       <c r="H35" s="29">
-        <v>314829.96071428573</v>
+        <v>314864.86785714288</v>
       </c>
       <c r="I35" s="31">
         <v>184297.59999999995</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="K35" s="32">
         <f t="shared" si="0"/>
-        <v>508187.17453571421</v>
+        <v>508217.38167857134</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
@@ -4416,10 +4416,10 @@
         <v>163.2258064516129</v>
       </c>
       <c r="G36" s="31">
-        <v>8619.1290322580644</v>
+        <v>8615.4032258064508</v>
       </c>
       <c r="H36" s="29">
-        <v>313197.24193548382</v>
+        <v>313224.29677419353</v>
       </c>
       <c r="I36" s="31">
         <v>190282.23225806435</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K36" s="32">
         <f t="shared" si="0"/>
-        <v>512393.25395161274</v>
+        <v>512416.58298387076</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="16"/>
@@ -4448,10 +4448,10 @@
         <v>176.73333333333335</v>
       </c>
       <c r="G37" s="31">
-        <v>9056.7033333333311</v>
+        <v>9052.373333333333</v>
       </c>
       <c r="H37" s="29">
-        <v>313905.48333333334</v>
+        <v>313943.83333333337</v>
       </c>
       <c r="I37" s="31">
         <v>193214.95333333334</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="K37" s="32">
         <f t="shared" si="0"/>
-        <v>516501.87423333328</v>
+        <v>516535.89423333341</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
@@ -4476,12 +4476,14 @@
         <v>0</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <v>179.19354838709677</v>
+      </c>
       <c r="G38" s="31">
-        <v>8872.4419354838701</v>
+        <v>8868.9419354838719</v>
       </c>
       <c r="H38" s="29">
-        <v>274525.80645161291</v>
+        <v>274442.97741935484</v>
       </c>
       <c r="I38" s="31">
         <v>185487.10000000003</v>
@@ -4491,7 +4493,7 @@
       </c>
       <c r="K38" s="32">
         <f t="shared" si="0"/>
-        <v>469024.86453225813</v>
+        <v>469117.72904838715</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="16"/>
@@ -4502,16 +4504,29 @@
       <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="38">
+        <v>0</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
+      <c r="F39" s="29">
+        <v>180.86666666666667</v>
+      </c>
+      <c r="G39" s="31">
+        <v>8660.3733333333348</v>
+      </c>
       <c r="H39" s="29">
-        <v>291229.44333333342</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+        <v>292767.98</v>
+      </c>
+      <c r="I39" s="31">
+        <v>180743.55999999991</v>
+      </c>
+      <c r="J39" s="31">
+        <v>151.38736666666665</v>
+      </c>
+      <c r="K39" s="32">
+        <f t="shared" si="0"/>
+        <v>482504.1673666666</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="16"/>
       <c r="Q39" s="17"/>
@@ -4521,14 +4536,29 @@
       <c r="C40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
+      <c r="F40" s="29">
+        <v>181.22580645161287</v>
+      </c>
+      <c r="G40" s="31">
+        <v>8969.2741935483864</v>
+      </c>
+      <c r="H40" s="29">
+        <v>313554.35806451604</v>
+      </c>
+      <c r="I40" s="31">
+        <v>187091.01612903224</v>
+      </c>
+      <c r="J40" s="31">
+        <v>138.39966129032254</v>
+      </c>
+      <c r="K40" s="32">
+        <f t="shared" si="0"/>
+        <v>509934.27385483863</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="16"/>
       <c r="Q40" s="17"/>
@@ -4542,7 +4572,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="29">
+        <v>314919.49032258062</v>
+      </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
       <c r="K41" s="32"/>
@@ -4630,7 +4662,7 @@
         <v>120</v>
       </c>
       <c r="K46" s="25">
-        <v>45155</v>
+        <v>45230</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +4691,9 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5566,10 +5600,10 @@
         <v>5.9226001741935486</v>
       </c>
       <c r="G34" s="31">
-        <v>300.61325413870969</v>
+        <v>300.60414069354835</v>
       </c>
       <c r="H34" s="29">
-        <v>11072.864350483871</v>
+        <v>11070.966247692902</v>
       </c>
       <c r="I34" s="31">
         <v>6639.4134187961281</v>
@@ -5579,7 +5613,7 @@
       </c>
       <c r="K34" s="32">
         <f t="shared" si="0"/>
-        <v>18023.643203291271</v>
+        <v>18021.735987055137</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -5595,10 +5629,10 @@
         <v>5.4081787428571433</v>
       </c>
       <c r="G35" s="31">
-        <v>309.70727626999997</v>
+        <v>309.54129765000005</v>
       </c>
       <c r="H35" s="29">
-        <v>11118.094130640715</v>
+        <v>11119.326862427857</v>
       </c>
       <c r="I35" s="31">
         <v>6508.3960249599986</v>
@@ -5608,7 +5642,7 @@
       </c>
       <c r="K35" s="32">
         <f t="shared" si="0"/>
-        <v>17946.426793858936</v>
+        <v>17947.493547026079</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -5624,10 +5658,10 @@
         <v>5.7642540645161287</v>
       </c>
       <c r="G36" s="31">
-        <v>304.38109412258063</v>
+        <v>304.24951875806448</v>
       </c>
       <c r="H36" s="29">
-        <v>11060.435320054836</v>
+        <v>11061.390750861934</v>
       </c>
       <c r="I36" s="31">
         <v>6719.7409193006388</v>
@@ -5637,7 +5671,7 @@
       </c>
       <c r="K36" s="32">
         <f t="shared" si="0"/>
-        <v>18094.962805999621</v>
+        <v>18095.786661442198</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -5653,10 +5687,10 @@
         <v>6.2412669733333335</v>
       </c>
       <c r="G37" s="31">
-        <v>319.83385553533327</v>
+        <v>319.68094331733334</v>
       </c>
       <c r="H37" s="29">
-        <v>11085.446581723332</v>
+        <v>11086.800896633335</v>
       </c>
       <c r="I37" s="31">
         <v>6823.308790985333</v>
@@ -5666,7 +5700,7 @@
       </c>
       <c r="K37" s="32">
         <f>SUM(D37:J37)</f>
-        <v>18240.057087800473</v>
+        <v>18241.258490492477</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -5678,12 +5712,14 @@
         <v>0</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <v>6.3281484838709678</v>
+      </c>
       <c r="G38" s="31">
-        <v>313.32673797483869</v>
+        <v>313.20313687483872</v>
       </c>
       <c r="H38" s="29">
-        <v>9694.7690445161297</v>
+        <v>9691.8439703735494</v>
       </c>
       <c r="I38" s="31">
         <v>6550.4027416600011</v>
@@ -5693,7 +5729,7 @@
       </c>
       <c r="K38" s="32">
         <f>SUM(D38:J38)</f>
-        <v>16563.425481010883</v>
+        <v>16566.704954252171</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -5701,30 +5737,58 @@
       <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="38">
+        <v>0</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
+      <c r="F39" s="29">
+        <v>6.3872339866666668</v>
+      </c>
+      <c r="G39" s="31">
+        <v>305.83762011733336</v>
+      </c>
       <c r="H39" s="29">
-        <v>10284.651299539335</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+        <v>10338.984106507998</v>
+      </c>
+      <c r="I39" s="31">
+        <v>6382.8865239759971</v>
+      </c>
+      <c r="J39" s="31">
+        <v>5.3461842988866666</v>
+      </c>
+      <c r="K39" s="32">
+        <f>SUM(D39:J39)</f>
+        <v>17039.441668886884</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="C40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
+      <c r="F40" s="29">
+        <v>6.3999168645161282</v>
+      </c>
+      <c r="G40" s="31">
+        <v>316.74633043548386</v>
+      </c>
+      <c r="H40" s="29">
+        <v>11073.046733305158</v>
+      </c>
+      <c r="I40" s="31">
+        <v>6607.0443981903218</v>
+      </c>
+      <c r="J40" s="31">
+        <v>4.8875286786032248</v>
+      </c>
+      <c r="K40" s="32">
+        <f>SUM(D40:J40)</f>
+        <v>18008.124907474081</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
@@ -5735,7 +5799,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="29">
+        <v>11121.255832945804</v>
+      </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
       <c r="K41" s="32"/>
@@ -5808,7 +5874,7 @@
         <v>120</v>
       </c>
       <c r="K46" s="25">
-        <v>45155</v>
+        <v>45230</v>
       </c>
     </row>
   </sheetData>
@@ -5836,7 +5902,7 @@
   <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292"/>
+      <selection activeCell="L295" sqref="L295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12785,7 +12851,7 @@
         <v>182.36379032258063</v>
       </c>
       <c r="K240" s="1">
-        <f t="shared" ref="K240:K292" si="5">SUM(C240:I240)</f>
+        <f t="shared" ref="K240:K294" si="5">SUM(C240:I240)</f>
         <v>453767.596048387</v>
       </c>
     </row>
@@ -14186,10 +14252,10 @@
         <v>167.70967741935485</v>
       </c>
       <c r="F288" s="1">
-        <v>8512.4354838709678</v>
+        <v>8512.177419354839</v>
       </c>
       <c r="G288" s="1">
-        <v>313549.19354838709</v>
+        <v>313495.44516129029</v>
       </c>
       <c r="H288" s="1">
         <v>188007.60645161287</v>
@@ -14199,7 +14265,7 @@
       </c>
       <c r="K288" s="1">
         <f t="shared" si="5"/>
-        <v>510373.70388709666</v>
+        <v>510319.69743548374</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -14213,10 +14279,10 @@
         <v>153.14285714285717</v>
       </c>
       <c r="F289" s="1">
-        <v>8769.9499999999989</v>
+        <v>8765.2500000000018</v>
       </c>
       <c r="G289" s="1">
-        <v>314829.96071428573</v>
+        <v>314864.86785714288</v>
       </c>
       <c r="H289" s="1">
         <v>184297.59999999995</v>
@@ -14226,7 +14292,7 @@
       </c>
       <c r="K289" s="1">
         <f t="shared" si="5"/>
-        <v>508187.17453571421</v>
+        <v>508217.38167857134</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -14240,10 +14306,10 @@
         <v>163.2258064516129</v>
       </c>
       <c r="F290" s="1">
-        <v>8619.1290322580644</v>
+        <v>8615.4032258064508</v>
       </c>
       <c r="G290" s="1">
-        <v>313197.24193548382</v>
+        <v>313224.29677419353</v>
       </c>
       <c r="H290" s="1">
         <v>190282.23225806435</v>
@@ -14253,7 +14319,7 @@
       </c>
       <c r="K290" s="1">
         <f t="shared" si="5"/>
-        <v>512393.25395161274</v>
+        <v>512416.58298387076</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -14267,10 +14333,10 @@
         <v>176.73333333333335</v>
       </c>
       <c r="F291" s="1">
-        <v>9056.7033333333311</v>
+        <v>9052.373333333333</v>
       </c>
       <c r="G291" s="1">
-        <v>313905.48333333334</v>
+        <v>313943.83333333337</v>
       </c>
       <c r="H291" s="1">
         <v>193214.95333333334</v>
@@ -14280,7 +14346,7 @@
       </c>
       <c r="K291" s="1">
         <f t="shared" si="5"/>
-        <v>516501.87423333328</v>
+        <v>516535.89423333341</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -14290,11 +14356,14 @@
       <c r="C292" s="1">
         <v>0</v>
       </c>
+      <c r="E292" s="1">
+        <v>179.19354838709677</v>
+      </c>
       <c r="F292" s="1">
-        <v>8872.4419354838701</v>
+        <v>8868.9419354838719</v>
       </c>
       <c r="G292" s="1">
-        <v>274525.80645161291</v>
+        <v>274442.97741935484</v>
       </c>
       <c r="H292" s="1">
         <v>185487.10000000003</v>
@@ -14304,25 +14373,69 @@
       </c>
       <c r="K292" s="1">
         <f t="shared" si="5"/>
-        <v>469024.86453225813</v>
+        <v>469117.72904838715</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>45078</v>
       </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+      <c r="E293" s="1">
+        <v>180.86666666666667</v>
+      </c>
+      <c r="F293" s="1">
+        <v>8660.3733333333348</v>
+      </c>
       <c r="G293" s="1">
-        <v>291229.44333333342</v>
+        <v>292767.98</v>
+      </c>
+      <c r="H293" s="1">
+        <v>180743.55999999991</v>
+      </c>
+      <c r="I293" s="1">
+        <v>151.38736666666665</v>
+      </c>
+      <c r="K293" s="1">
+        <f t="shared" si="5"/>
+        <v>482504.1673666666</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45108</v>
       </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+      <c r="E294" s="1">
+        <v>181.22580645161287</v>
+      </c>
+      <c r="F294" s="1">
+        <v>8969.2741935483864</v>
+      </c>
+      <c r="G294" s="1">
+        <v>313554.35806451604</v>
+      </c>
+      <c r="H294" s="1">
+        <v>187091.01612903224</v>
+      </c>
+      <c r="I294" s="1">
+        <v>138.39966129032254</v>
+      </c>
+      <c r="K294" s="1">
+        <f t="shared" si="5"/>
+        <v>509934.27385483863</v>
+      </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
+      </c>
+      <c r="G295" s="1">
+        <v>314919.49032258062</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -14355,7 +14468,7 @@
   <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="K292" sqref="K292"/>
+      <selection activeCell="L295" sqref="L295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20821,7 +20934,7 @@
         <v>0.47650217616129031</v>
       </c>
       <c r="K228" s="1">
-        <f t="shared" ref="K228:K292" si="5">SUM(C228:I228)</f>
+        <f t="shared" ref="K228:K294" si="5">SUM(C228:I228)</f>
         <v>16520.729929684676</v>
       </c>
       <c r="M228" s="2" t="s">
@@ -22589,10 +22702,10 @@
         <v>5.9226001741935486</v>
       </c>
       <c r="F288" s="1">
-        <v>300.61325413870969</v>
+        <v>300.60414069354835</v>
       </c>
       <c r="G288" s="1">
-        <v>11072.864350483871</v>
+        <v>11070.966247692902</v>
       </c>
       <c r="H288" s="1">
         <v>6639.4134187961281</v>
@@ -22602,7 +22715,7 @@
       </c>
       <c r="K288" s="1">
         <f t="shared" si="5"/>
-        <v>18023.643203291271</v>
+        <v>18021.735987055137</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -22616,10 +22729,10 @@
         <v>5.4081787428571433</v>
       </c>
       <c r="F289" s="1">
-        <v>309.70727626999997</v>
+        <v>309.54129765000005</v>
       </c>
       <c r="G289" s="1">
-        <v>11118.094130640715</v>
+        <v>11119.326862427857</v>
       </c>
       <c r="H289" s="1">
         <v>6508.3960249599986</v>
@@ -22629,7 +22742,7 @@
       </c>
       <c r="K289" s="1">
         <f t="shared" si="5"/>
-        <v>17946.426793858936</v>
+        <v>17947.493547026079</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -22643,10 +22756,10 @@
         <v>5.7642540645161287</v>
       </c>
       <c r="F290" s="1">
-        <v>304.38109412258063</v>
+        <v>304.24951875806448</v>
       </c>
       <c r="G290" s="1">
-        <v>11060.435320054836</v>
+        <v>11061.390750861934</v>
       </c>
       <c r="H290" s="1">
         <v>6719.7409193006388</v>
@@ -22656,7 +22769,7 @@
       </c>
       <c r="K290" s="1">
         <f t="shared" si="5"/>
-        <v>18094.962805999621</v>
+        <v>18095.786661442198</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -22670,10 +22783,10 @@
         <v>6.2412669733333335</v>
       </c>
       <c r="F291" s="1">
-        <v>319.83385553533327</v>
+        <v>319.68094331733334</v>
       </c>
       <c r="G291" s="1">
-        <v>11085.446581723332</v>
+        <v>11086.800896633335</v>
       </c>
       <c r="H291" s="1">
         <v>6823.308790985333</v>
@@ -22683,7 +22796,7 @@
       </c>
       <c r="K291" s="1">
         <f t="shared" si="5"/>
-        <v>18240.057087800473</v>
+        <v>18241.258490492477</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -22693,11 +22806,14 @@
       <c r="C292" s="1">
         <v>0</v>
       </c>
+      <c r="E292" s="1">
+        <v>6.3281484838709678</v>
+      </c>
       <c r="F292" s="1">
-        <v>313.32673797483869</v>
+        <v>313.20313687483872</v>
       </c>
       <c r="G292" s="1">
-        <v>9694.7690445161297</v>
+        <v>9691.8439703735494</v>
       </c>
       <c r="H292" s="1">
         <v>6550.4027416600011</v>
@@ -22707,25 +22823,69 @@
       </c>
       <c r="K292" s="1">
         <f t="shared" si="5"/>
-        <v>16563.425481010883</v>
+        <v>16566.704954252171</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>45078</v>
       </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+      <c r="E293" s="1">
+        <v>6.3872339866666668</v>
+      </c>
+      <c r="F293" s="1">
+        <v>305.83762011733336</v>
+      </c>
       <c r="G293" s="1">
-        <v>10284.651299539335</v>
+        <v>10338.984106507998</v>
+      </c>
+      <c r="H293" s="1">
+        <v>6382.8865239759971</v>
+      </c>
+      <c r="I293" s="1">
+        <v>5.3461842988866666</v>
+      </c>
+      <c r="K293" s="1">
+        <f t="shared" si="5"/>
+        <v>17039.441668886884</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>45108</v>
       </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+      <c r="E294" s="1">
+        <v>6.3999168645161282</v>
+      </c>
+      <c r="F294" s="1">
+        <v>316.74633043548386</v>
+      </c>
+      <c r="G294" s="1">
+        <v>11073.046733305158</v>
+      </c>
+      <c r="H294" s="1">
+        <v>6607.0443981903218</v>
+      </c>
+      <c r="I294" s="1">
+        <v>4.8875286786032248</v>
+      </c>
+      <c r="K294" s="1">
+        <f t="shared" si="5"/>
+        <v>18008.124907474081</v>
+      </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
+      </c>
+      <c r="G295" s="1">
+        <v>11121.255832945804</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
@@ -22756,7 +22916,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">619</parentID>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">880</parentID>
     <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -22993,7 +23153,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E70FBB1F-4022-4F8D-8935-231F8FBD10D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD42CCA7-425B-4195-84F5-62430F0E680F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -23004,7 +23164,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{903AAC42-9191-4785-BF57-2A4EADC7B9E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0472C2CF-FBB5-43AC-B188-E906927426F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -23012,7 +23172,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5236973-902A-46CB-965C-41EB859DFC7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF6E7C-603E-417E-B839-534D5E304EFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/gas_prod.xlsx
+++ b/gas_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\natural-gas\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77BA58E-04EB-482A-91E8-6096CC288369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{83714AEC-2A46-43A6-9AE7-F0FBD0993227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods Méthodes" sheetId="22" r:id="rId1"/>
@@ -1696,7 +1696,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="231" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="231" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="47" fillId="0" borderId="24" xfId="231" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,6 +1795,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="231" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="231" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2770,604 +2770,604 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="47"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="50"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="52" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="53"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="47"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="47"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="47"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="47"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="47"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="47"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="47"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="47"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="47"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="47"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="47"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="47"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="56" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="47"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="47"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="47" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="47"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="47"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="47"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="47"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="55" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="46" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="47"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
+      <c r="A75" s="46"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="47"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="M80" s="50"/>
+      <c r="M80" s="49"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
+      <c r="A81" s="58" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="52" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="53"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="47"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="47" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="47"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="53" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="55" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="47" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="47"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="47"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="47"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="47"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
+      <c r="A113" s="54" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="49" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="47"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="47" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="47"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="47"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="47"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="47"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="56" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="53" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="47"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="47"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="47"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="47"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="48" t="s">
+      <c r="A134" s="47" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="47"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="48" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="56" t="s">
+      <c r="A138" s="55" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="56" t="s">
+      <c r="A139" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="47"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3403,8 +3403,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3474,8 +3474,8 @@
       <c r="K6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="67" t="s">
         <v>0</v>
       </c>
@@ -3502,8 +3502,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="68"/>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
@@ -3514,8 +3514,8 @@
       <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="68"/>
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
@@ -3532,30 +3532,30 @@
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
-        <v>343.24193548387092</v>
-      </c>
-      <c r="F10" s="27">
-        <v>186.8064516129032</v>
-      </c>
-      <c r="G10" s="28">
-        <v>9014.677419354839</v>
-      </c>
-      <c r="H10" s="27">
-        <v>280010.09999999998</v>
-      </c>
-      <c r="I10" s="28">
-        <v>157082.34193548383</v>
-      </c>
-      <c r="J10" s="28">
-        <v>169.68801612903226</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" ref="K10:K40" si="0">SUM(D10:J10)</f>
-        <v>446806.85575806448</v>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>343.24193548387098</v>
+      </c>
+      <c r="F10" s="26">
+        <v>186.80645751953125</v>
+      </c>
+      <c r="G10" s="27">
+        <v>9015.0999999999985</v>
+      </c>
+      <c r="H10" s="26">
+        <v>280010.125</v>
+      </c>
+      <c r="I10" s="27">
+        <v>157082.34375</v>
+      </c>
+      <c r="J10" s="27">
+        <v>169.68801612903223</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" ref="K10:K42" si="0">SUM(D10:J10)</f>
+        <v>446807.3051591324</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
@@ -3567,30 +3567,30 @@
       <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
         <v>323.24285714285713</v>
       </c>
-      <c r="F11" s="29">
-        <v>187.46428571428569</v>
-      </c>
-      <c r="G11" s="31">
-        <v>8425.9285714285706</v>
-      </c>
-      <c r="H11" s="29">
-        <v>271371.71428571432</v>
-      </c>
-      <c r="I11" s="31">
-        <v>157801.77500000002</v>
-      </c>
-      <c r="J11" s="31">
-        <v>161.07310714285711</v>
-      </c>
-      <c r="K11" s="32">
+      <c r="F11" s="28">
+        <v>187.46427917480469</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8426.096428571429</v>
+      </c>
+      <c r="H11" s="28">
+        <v>271371.6875</v>
+      </c>
+      <c r="I11" s="30">
+        <v>157801.765625</v>
+      </c>
+      <c r="J11" s="30">
+        <v>161.07310714285714</v>
+      </c>
+      <c r="K11" s="31">
         <f t="shared" si="0"/>
-        <v>438271.19810714293</v>
+        <v>438271.32979703194</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
@@ -3601,30 +3601,30 @@
       <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="38">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
         <v>298.07419354838709</v>
       </c>
-      <c r="F12" s="29">
-        <v>183.90322580645162</v>
-      </c>
-      <c r="G12" s="31">
-        <v>9084.1870967741925</v>
-      </c>
-      <c r="H12" s="29">
-        <v>285873.81612903235</v>
-      </c>
-      <c r="I12" s="31">
-        <v>158179.13225806449</v>
-      </c>
-      <c r="J12" s="31">
-        <v>170.75922580645167</v>
-      </c>
-      <c r="K12" s="32">
+      <c r="F12" s="28">
+        <v>183.90322875976563</v>
+      </c>
+      <c r="G12" s="30">
+        <v>9076.5193548387106</v>
+      </c>
+      <c r="H12" s="28">
+        <v>285873.84375</v>
+      </c>
+      <c r="I12" s="30">
+        <v>158179.125</v>
+      </c>
+      <c r="J12" s="30">
+        <v>170.75922580645164</v>
+      </c>
+      <c r="K12" s="31">
         <f t="shared" si="0"/>
-        <v>453789.87212903227</v>
+        <v>453782.22475295333</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
@@ -3635,30 +3635,30 @@
       <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
         <v>246.09666666666666</v>
       </c>
-      <c r="F13" s="29">
-        <v>196.46666666666667</v>
-      </c>
-      <c r="G13" s="31">
-        <v>9408.9333333333325</v>
-      </c>
-      <c r="H13" s="29">
-        <v>287413.99333333335</v>
-      </c>
-      <c r="I13" s="31">
-        <v>161376.40000000002</v>
-      </c>
-      <c r="J13" s="31">
+      <c r="F13" s="28">
+        <v>196.46665954589844</v>
+      </c>
+      <c r="G13" s="30">
+        <v>9408.8233333333337</v>
+      </c>
+      <c r="H13" s="28">
+        <v>287414</v>
+      </c>
+      <c r="I13" s="30">
+        <v>161376.40625</v>
+      </c>
+      <c r="J13" s="30">
         <v>189.32395</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <f t="shared" si="0"/>
-        <v>458831.21395</v>
+        <v>458831.11685954587</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
@@ -3669,30 +3669,30 @@
       <c r="C14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
         <v>3.2258064516129032E-3</v>
       </c>
-      <c r="F14" s="29">
-        <v>194.64516129032259</v>
-      </c>
-      <c r="G14" s="31">
-        <v>9203.3645161290315</v>
-      </c>
-      <c r="H14" s="29">
-        <v>282263.20645161293</v>
-      </c>
-      <c r="I14" s="31">
-        <v>157110.67096774193</v>
-      </c>
-      <c r="J14" s="31">
-        <v>191.63851612903227</v>
-      </c>
-      <c r="K14" s="32">
+      <c r="F14" s="28">
+        <v>194.64515686035156</v>
+      </c>
+      <c r="G14" s="30">
+        <v>9204.5580645161281</v>
+      </c>
+      <c r="H14" s="28">
+        <v>282263.1875</v>
+      </c>
+      <c r="I14" s="30">
+        <v>157110.671875</v>
+      </c>
+      <c r="J14" s="30">
+        <v>191.63851612903224</v>
+      </c>
+      <c r="K14" s="31">
         <f t="shared" si="0"/>
-        <v>448963.5288387097</v>
+        <v>448964.70433831197</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -3703,30 +3703,30 @@
       <c r="C15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0.21666666666666665</v>
-      </c>
-      <c r="F15" s="29">
-        <v>205.06666666666666</v>
-      </c>
-      <c r="G15" s="31">
-        <v>8760.4866666666676</v>
-      </c>
-      <c r="H15" s="29">
-        <v>279415.53666666662</v>
-      </c>
-      <c r="I15" s="31">
-        <v>157099.85</v>
-      </c>
-      <c r="J15" s="31">
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="F15" s="28">
+        <v>205.06666564941406</v>
+      </c>
+      <c r="G15" s="30">
+        <v>8761.2566666666644</v>
+      </c>
+      <c r="H15" s="28">
+        <v>279415.5625</v>
+      </c>
+      <c r="I15" s="30">
+        <v>157099.84375</v>
+      </c>
+      <c r="J15" s="30">
         <v>166.95235</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f t="shared" si="0"/>
-        <v>445648.1090166666</v>
+        <v>445648.89859898272</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
@@ -3737,30 +3737,30 @@
       <c r="C16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F16" s="29">
-        <v>212.87096774193552</v>
-      </c>
-      <c r="G16" s="31">
-        <v>8979.1064516129027</v>
-      </c>
-      <c r="H16" s="29">
-        <v>285369.1451612903</v>
-      </c>
-      <c r="I16" s="31">
-        <v>159039.3322580645</v>
-      </c>
-      <c r="J16" s="31">
-        <v>49.631983870967737</v>
-      </c>
-      <c r="K16" s="32">
+      <c r="F16" s="28">
+        <v>212.8709716796875</v>
+      </c>
+      <c r="G16" s="30">
+        <v>8979.8000000000011</v>
+      </c>
+      <c r="H16" s="28">
+        <v>285369.125</v>
+      </c>
+      <c r="I16" s="30">
+        <v>159039.34375</v>
+      </c>
+      <c r="J16" s="30">
+        <v>49.631983870967744</v>
+      </c>
+      <c r="K16" s="31">
         <f t="shared" si="0"/>
-        <v>453650.15133870963</v>
+        <v>453650.8362216797</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
@@ -3774,30 +3774,30 @@
       <c r="C17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
         <v>0.2129032258064516</v>
       </c>
-      <c r="F17" s="29">
-        <v>168.06451612903223</v>
-      </c>
-      <c r="G17" s="31">
-        <v>8925.0548387096769</v>
-      </c>
-      <c r="H17" s="29">
-        <v>289231.51935483865</v>
-      </c>
-      <c r="I17" s="31">
-        <v>164678.11935483859</v>
-      </c>
-      <c r="J17" s="31">
+      <c r="F17" s="28">
+        <v>168.06451416015625</v>
+      </c>
+      <c r="G17" s="30">
+        <v>8929.5354838709682</v>
+      </c>
+      <c r="H17" s="28">
+        <v>289231.53125</v>
+      </c>
+      <c r="I17" s="30">
+        <v>164678.109375</v>
+      </c>
+      <c r="J17" s="30">
         <v>30.615145161290322</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <f t="shared" si="0"/>
-        <v>463033.58611290308</v>
+        <v>463038.06867141824</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
@@ -3808,30 +3808,30 @@
       <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1.593333333333333</v>
-      </c>
-      <c r="F18" s="36">
-        <v>155.20000000000002</v>
-      </c>
-      <c r="G18" s="31">
-        <v>9085.130000000001</v>
-      </c>
-      <c r="H18" s="29">
-        <v>283808.05</v>
-      </c>
-      <c r="I18" s="31">
-        <v>167572.83666666667</v>
-      </c>
-      <c r="J18" s="31">
-        <v>190.33291666666665</v>
-      </c>
-      <c r="K18" s="32">
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1.5933333333333333</v>
+      </c>
+      <c r="F18" s="35">
+        <v>155.19999694824219</v>
+      </c>
+      <c r="G18" s="30">
+        <v>9079.8933333333352</v>
+      </c>
+      <c r="H18" s="28">
+        <v>283808.0625</v>
+      </c>
+      <c r="I18" s="30">
+        <v>167572.828125</v>
+      </c>
+      <c r="J18" s="30">
+        <v>190.33291666666668</v>
+      </c>
+      <c r="K18" s="31">
         <f t="shared" si="0"/>
-        <v>460813.14291666669</v>
+        <v>460807.91020528163</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
@@ -3842,30 +3842,30 @@
       <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="38">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
         <v>0.6967741935483871</v>
       </c>
-      <c r="F19" s="36">
-        <v>191.67741935483869</v>
-      </c>
-      <c r="G19" s="31">
-        <v>9162.4483870967761</v>
-      </c>
-      <c r="H19" s="29">
-        <v>290234.95483870961</v>
-      </c>
-      <c r="I19" s="31">
-        <v>161504.564516129</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="F19" s="35">
+        <v>191.67741394042969</v>
+      </c>
+      <c r="G19" s="30">
+        <v>9124.7000000000007</v>
+      </c>
+      <c r="H19" s="28">
+        <v>290234.9375</v>
+      </c>
+      <c r="I19" s="30">
+        <v>161504.5625</v>
+      </c>
+      <c r="J19" s="30">
         <v>173.48519354838712</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <f t="shared" si="0"/>
-        <v>461267.82712903211</v>
+        <v>461230.05938168237</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
@@ -3876,64 +3876,64 @@
       <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="38">
-        <v>0</v>
-      </c>
-      <c r="E20" s="31">
-        <v>249.08999999999997</v>
-      </c>
-      <c r="F20" s="29">
-        <v>190.20000000000002</v>
-      </c>
-      <c r="G20" s="31">
-        <v>9116.4999999999982</v>
-      </c>
-      <c r="H20" s="29">
-        <v>295358.92333333334</v>
-      </c>
-      <c r="I20" s="31">
-        <v>171982.53</v>
-      </c>
-      <c r="J20" s="31">
-        <v>187.82973333333337</v>
-      </c>
-      <c r="K20" s="32">
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <v>249.09</v>
+      </c>
+      <c r="F20" s="28">
+        <v>190.19999694824219</v>
+      </c>
+      <c r="G20" s="30">
+        <v>9125.92</v>
+      </c>
+      <c r="H20" s="28">
+        <v>295358.90625</v>
+      </c>
+      <c r="I20" s="30">
+        <v>171982.53125</v>
+      </c>
+      <c r="J20" s="30">
+        <v>187.82973333333334</v>
+      </c>
+      <c r="K20" s="31">
         <f t="shared" si="0"/>
-        <v>477085.07306666661</v>
+        <v>477094.47723028157</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="44">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
         <v>331.7161290322581</v>
       </c>
-      <c r="F21" s="31">
-        <v>187.09677419354838</v>
-      </c>
-      <c r="G21" s="31">
-        <v>8736.7612903225818</v>
-      </c>
-      <c r="H21" s="31">
-        <v>286711.28709677415</v>
-      </c>
-      <c r="I21" s="31">
-        <v>170788.31935483869</v>
-      </c>
-      <c r="J21" s="31">
-        <v>193.8545483870968</v>
-      </c>
-      <c r="K21" s="32">
+      <c r="F21" s="30">
+        <v>187.09677124023438</v>
+      </c>
+      <c r="G21" s="30">
+        <v>8745.1096774193556</v>
+      </c>
+      <c r="H21" s="30">
+        <v>286711.3125</v>
+      </c>
+      <c r="I21" s="30">
+        <v>170788.328125</v>
+      </c>
+      <c r="J21" s="30">
+        <v>193.85454838709677</v>
+      </c>
+      <c r="K21" s="31">
         <f t="shared" si="0"/>
-        <v>466949.03519354836</v>
+        <v>466957.41775107896</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="16"/>
@@ -3946,30 +3946,30 @@
       <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="44">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22" s="43">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
         <v>287.63548387096779</v>
       </c>
-      <c r="F22" s="29">
-        <v>159.48387096774195</v>
-      </c>
-      <c r="G22" s="31">
-        <v>8508.4387096774171</v>
-      </c>
-      <c r="H22" s="29">
-        <v>289498.40322580654</v>
-      </c>
-      <c r="I22" s="31">
-        <v>170521.56774193549</v>
-      </c>
-      <c r="J22" s="31">
-        <v>183.65237096774192</v>
-      </c>
-      <c r="K22" s="32">
+      <c r="F22" s="28">
+        <v>159.48387145996094</v>
+      </c>
+      <c r="G22" s="30">
+        <v>8533.8290322580651</v>
+      </c>
+      <c r="H22" s="28">
+        <v>289498.375</v>
+      </c>
+      <c r="I22" s="30">
+        <v>170521.5625</v>
+      </c>
+      <c r="J22" s="30">
+        <v>183.65237096774194</v>
+      </c>
+      <c r="K22" s="31">
         <f t="shared" si="0"/>
-        <v>469159.18140322587</v>
+        <v>469184.53825855674</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="16"/>
@@ -3981,30 +3981,30 @@
       <c r="C23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="44">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31">
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
         <v>277.40714285714284</v>
       </c>
-      <c r="F23" s="29">
-        <v>160.46428571428569</v>
-      </c>
-      <c r="G23" s="31">
-        <v>8520.2678571428569</v>
-      </c>
-      <c r="H23" s="29">
-        <v>296883.65357142856</v>
-      </c>
-      <c r="I23" s="31">
-        <v>173246.66785714283</v>
-      </c>
-      <c r="J23" s="31">
-        <v>177.44130357142859</v>
-      </c>
-      <c r="K23" s="32">
+      <c r="F23" s="28">
+        <v>160.46427917480469</v>
+      </c>
+      <c r="G23" s="30">
+        <v>8538.2071428571435</v>
+      </c>
+      <c r="H23" s="28">
+        <v>296883.65625</v>
+      </c>
+      <c r="I23" s="30">
+        <v>173246.65625</v>
+      </c>
+      <c r="J23" s="30">
+        <v>177.44130357142856</v>
+      </c>
+      <c r="K23" s="31">
         <f t="shared" si="0"/>
-        <v>479265.90201785718</v>
+        <v>479283.83236846054</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="16"/>
@@ -4015,30 +4015,30 @@
       <c r="C24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="44">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
-        <v>236.9</v>
-      </c>
-      <c r="F24" s="29">
-        <v>163.32258064516128</v>
-      </c>
-      <c r="G24" s="31">
-        <v>8847.9774193548383</v>
-      </c>
-      <c r="H24" s="29">
-        <v>303096.31935483875</v>
-      </c>
-      <c r="I24" s="31">
-        <v>173631.54516129033</v>
-      </c>
-      <c r="J24" s="31">
-        <v>168.34427419354839</v>
-      </c>
-      <c r="K24" s="32">
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>236.89999999999998</v>
+      </c>
+      <c r="F24" s="28">
+        <v>163.32258605957031</v>
+      </c>
+      <c r="G24" s="30">
+        <v>8877.3419354838716</v>
+      </c>
+      <c r="H24" s="28">
+        <v>303096.3125</v>
+      </c>
+      <c r="I24" s="30">
+        <v>173631.546875</v>
+      </c>
+      <c r="J24" s="30">
+        <v>168.34427419354842</v>
+      </c>
+      <c r="K24" s="31">
         <f t="shared" si="0"/>
-        <v>486144.40879032266</v>
+        <v>486173.76817073702</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="16"/>
@@ -4049,30 +4049,30 @@
       <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="38">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
-        <v>123.64999999999999</v>
-      </c>
-      <c r="F25" s="29">
-        <v>176.33333333333334</v>
-      </c>
-      <c r="G25" s="31">
-        <v>8670.086666666668</v>
-      </c>
-      <c r="H25" s="29">
-        <v>310445.98333333328</v>
-      </c>
-      <c r="I25" s="31">
-        <v>176777.96666666659</v>
-      </c>
-      <c r="J25" s="31">
-        <v>169.7381666666667</v>
-      </c>
-      <c r="K25" s="32">
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <v>123.65</v>
+      </c>
+      <c r="F25" s="28">
+        <v>176.33332824707031</v>
+      </c>
+      <c r="G25" s="30">
+        <v>8708.2633333333342</v>
+      </c>
+      <c r="H25" s="28">
+        <v>310446</v>
+      </c>
+      <c r="I25" s="30">
+        <v>176777.96875</v>
+      </c>
+      <c r="J25" s="30">
+        <v>169.73816666666667</v>
+      </c>
+      <c r="K25" s="31">
         <f t="shared" si="0"/>
-        <v>496363.75816666655</v>
+        <v>496401.95357824705</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="16"/>
@@ -4083,28 +4083,30 @@
       <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29">
-        <v>188.38709677419354</v>
-      </c>
-      <c r="G26" s="31">
-        <v>8848.4483870967761</v>
-      </c>
-      <c r="H26" s="29">
-        <v>302011.32258064521</v>
-      </c>
-      <c r="I26" s="31">
-        <v>174744.72580645161</v>
-      </c>
-      <c r="J26" s="31">
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.48064516129032259</v>
+      </c>
+      <c r="F26" s="28">
+        <v>188.38710021972656</v>
+      </c>
+      <c r="G26" s="30">
+        <v>8871.4709677419341</v>
+      </c>
+      <c r="H26" s="28">
+        <v>302011.3125</v>
+      </c>
+      <c r="I26" s="30">
+        <v>174744.71875</v>
+      </c>
+      <c r="J26" s="30">
         <v>189.10001612903227</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <f t="shared" si="0"/>
-        <v>485981.98388709681</v>
+        <v>486005.46997925197</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="16"/>
@@ -4115,28 +4117,30 @@
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="38">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="29">
-        <v>197.83333333333331</v>
-      </c>
-      <c r="G27" s="31">
-        <v>8687.6566666666677</v>
-      </c>
-      <c r="H27" s="29">
-        <v>298256.19999999995</v>
-      </c>
-      <c r="I27" s="31">
-        <v>173099.81666666668</v>
-      </c>
-      <c r="J27" s="31">
+      <c r="D27" s="37">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F27" s="28">
+        <v>197.83332824707031</v>
+      </c>
+      <c r="G27" s="30">
+        <v>8678.64</v>
+      </c>
+      <c r="H27" s="28">
+        <v>298256.1875</v>
+      </c>
+      <c r="I27" s="30">
+        <v>173099.8125</v>
+      </c>
+      <c r="J27" s="30">
         <v>175.05</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <f t="shared" si="0"/>
-        <v>480416.55666666658</v>
+        <v>480407.9399949137</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="16"/>
@@ -4147,28 +4151,30 @@
       <c r="C28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="29">
-        <v>196.19354838709677</v>
-      </c>
-      <c r="G28" s="31">
-        <v>8640.4193548387102</v>
-      </c>
-      <c r="H28" s="29">
-        <v>309144.08387096779</v>
-      </c>
-      <c r="I28" s="31">
-        <v>177231.72258064518</v>
-      </c>
-      <c r="J28" s="31">
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0.38064516129032261</v>
+      </c>
+      <c r="F28" s="28">
+        <v>196.19354248046875</v>
+      </c>
+      <c r="G28" s="30">
+        <v>8622.1612903225814</v>
+      </c>
+      <c r="H28" s="28">
+        <v>309144.09375</v>
+      </c>
+      <c r="I28" s="30">
+        <v>177231.71875</v>
+      </c>
+      <c r="J28" s="30">
         <v>161.24408064516126</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="31">
         <f t="shared" si="0"/>
-        <v>495373.66343548393</v>
+        <v>495355.79205860948</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
@@ -4182,28 +4188,30 @@
       <c r="C29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="38">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="29">
-        <v>200.12903225806451</v>
-      </c>
-      <c r="G29" s="31">
-        <v>8630.3290322580651</v>
-      </c>
-      <c r="H29" s="29">
-        <v>305343.79032258061</v>
-      </c>
-      <c r="I29" s="31">
-        <v>169422.30645161285</v>
-      </c>
-      <c r="J29" s="31">
-        <v>156.69672580645158</v>
-      </c>
-      <c r="K29" s="32">
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="30">
+        <v>0.40322580645161288</v>
+      </c>
+      <c r="F29" s="28">
+        <v>200.1290283203125</v>
+      </c>
+      <c r="G29" s="30">
+        <v>8659.6064516129027</v>
+      </c>
+      <c r="H29" s="28">
+        <v>305343.8125</v>
+      </c>
+      <c r="I29" s="30">
+        <v>169422.3125</v>
+      </c>
+      <c r="J29" s="30">
+        <v>156.69672580645161</v>
+      </c>
+      <c r="K29" s="31">
         <f t="shared" si="0"/>
-        <v>483753.25156451605</v>
+        <v>483782.96043154615</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="16"/>
@@ -4214,28 +4222,30 @@
       <c r="C30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="38">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="36">
-        <v>200.16666666666666</v>
-      </c>
-      <c r="G30" s="31">
-        <v>8810.44</v>
-      </c>
-      <c r="H30" s="29">
-        <v>307787.89</v>
-      </c>
-      <c r="I30" s="31">
-        <v>175183.77333333335</v>
-      </c>
-      <c r="J30" s="31">
-        <v>136.90261666666663</v>
-      </c>
-      <c r="K30" s="32">
+      <c r="D30" s="37">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>200.16667175292969</v>
+      </c>
+      <c r="G30" s="30">
+        <v>8809.626666666667</v>
+      </c>
+      <c r="H30" s="28">
+        <v>307787.875</v>
+      </c>
+      <c r="I30" s="30">
+        <v>175183.765625</v>
+      </c>
+      <c r="J30" s="30">
+        <v>136.90261666666666</v>
+      </c>
+      <c r="K30" s="31">
         <f t="shared" si="0"/>
-        <v>492119.17261666671</v>
+        <v>492118.33658008627</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
@@ -4246,28 +4256,30 @@
       <c r="C31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="36">
-        <v>184.25806451612905</v>
-      </c>
-      <c r="G31" s="31">
-        <v>9064.6161290322561</v>
-      </c>
-      <c r="H31" s="29">
-        <v>309619.26774193539</v>
-      </c>
-      <c r="I31" s="31">
-        <v>183863.02903225805</v>
-      </c>
-      <c r="J31" s="31">
-        <v>161.20404838709675</v>
-      </c>
-      <c r="K31" s="32">
+      <c r="D31" s="37">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <v>16.535483870967742</v>
+      </c>
+      <c r="F31" s="35">
+        <v>184.25807189941406</v>
+      </c>
+      <c r="G31" s="30">
+        <v>9060.4258064516125</v>
+      </c>
+      <c r="H31" s="28">
+        <v>309619.28125</v>
+      </c>
+      <c r="I31" s="30">
+        <v>183863.03125</v>
+      </c>
+      <c r="J31" s="30">
+        <v>161.20404838709678</v>
+      </c>
+      <c r="K31" s="31">
         <f t="shared" si="0"/>
-        <v>502892.37501612899</v>
+        <v>502904.73591060913</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="16"/>
@@ -4278,28 +4290,30 @@
       <c r="C32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="38">
-        <v>0</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="29">
-        <v>173.93333333333334</v>
-      </c>
-      <c r="G32" s="31">
-        <v>8908.4133333333339</v>
-      </c>
-      <c r="H32" s="29">
-        <v>311159.01666666666</v>
-      </c>
-      <c r="I32" s="31">
-        <v>187830.15999999989</v>
-      </c>
-      <c r="J32" s="31">
+      <c r="D32" s="37">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <v>315.2</v>
+      </c>
+      <c r="F32" s="28">
+        <v>173.93333435058594</v>
+      </c>
+      <c r="G32" s="30">
+        <v>8914.8166666666675</v>
+      </c>
+      <c r="H32" s="28">
+        <v>311159</v>
+      </c>
+      <c r="I32" s="30">
+        <v>187830.171875</v>
+      </c>
+      <c r="J32" s="30">
         <v>163.09381666666667</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="31">
         <f t="shared" si="0"/>
-        <v>508234.61714999989</v>
+        <v>508556.21569268394</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="16"/>
@@ -4310,28 +4324,30 @@
       <c r="C33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="38">
-        <v>0</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="29">
-        <v>151.67741935483869</v>
-      </c>
-      <c r="G33" s="31">
-        <v>8416.8096774193564</v>
-      </c>
-      <c r="H33" s="29">
-        <v>303441.66774193547</v>
-      </c>
-      <c r="I33" s="31">
-        <v>188163.46774193534</v>
-      </c>
-      <c r="J33" s="31">
+      <c r="D33" s="37">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <v>320.09354838709675</v>
+      </c>
+      <c r="F33" s="28">
+        <v>151.67741394042969</v>
+      </c>
+      <c r="G33" s="30">
+        <v>8422.1612903225814</v>
+      </c>
+      <c r="H33" s="28">
+        <v>303441.6875</v>
+      </c>
+      <c r="I33" s="30">
+        <v>188163.46875</v>
+      </c>
+      <c r="J33" s="30">
         <v>165.39524193548388</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="31">
         <f t="shared" si="0"/>
-        <v>500339.01782258053</v>
+        <v>500664.4837445856</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="16"/>
@@ -4344,28 +4360,30 @@
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="38">
-        <v>0</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="29">
-        <v>167.70967741935485</v>
-      </c>
-      <c r="G34" s="31">
-        <v>8512.177419354839</v>
-      </c>
-      <c r="H34" s="29">
-        <v>313495.44516129029</v>
-      </c>
-      <c r="I34" s="31">
-        <v>188007.60645161287</v>
-      </c>
-      <c r="J34" s="31">
-        <v>136.75872580645165</v>
-      </c>
-      <c r="K34" s="32">
+      <c r="D34" s="37">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>254.23870967741934</v>
+      </c>
+      <c r="F34" s="28">
+        <v>167.70967102050781</v>
+      </c>
+      <c r="G34" s="30">
+        <v>8509.3387096774186</v>
+      </c>
+      <c r="H34" s="28">
+        <v>313543.96875</v>
+      </c>
+      <c r="I34" s="30">
+        <v>188007.609375</v>
+      </c>
+      <c r="J34" s="30">
+        <v>136.75872580645162</v>
+      </c>
+      <c r="K34" s="31">
         <f t="shared" si="0"/>
-        <v>510319.69743548374</v>
+        <v>510619.62394118175</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="16"/>
@@ -4376,28 +4394,30 @@
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="29">
-        <v>153.14285714285717</v>
-      </c>
-      <c r="G35" s="31">
-        <v>8765.2500000000018</v>
-      </c>
-      <c r="H35" s="29">
-        <v>314864.86785714288</v>
-      </c>
-      <c r="I35" s="31">
-        <v>184297.59999999995</v>
-      </c>
-      <c r="J35" s="31">
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="30">
+        <v>257.67142857142858</v>
+      </c>
+      <c r="F35" s="28">
+        <v>153.14285278320313</v>
+      </c>
+      <c r="G35" s="30">
+        <v>8766.4642857142862</v>
+      </c>
+      <c r="H35" s="28">
+        <v>314895.71875</v>
+      </c>
+      <c r="I35" s="30">
+        <v>184297.609375</v>
+      </c>
+      <c r="J35" s="30">
         <v>136.52096428571429</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="31">
         <f t="shared" si="0"/>
-        <v>508217.38167857134</v>
+        <v>508507.12765635463</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
@@ -4408,28 +4428,30 @@
       <c r="C36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="38">
-        <v>0</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="29">
-        <v>163.2258064516129</v>
-      </c>
-      <c r="G36" s="31">
-        <v>8615.4032258064508</v>
-      </c>
-      <c r="H36" s="29">
-        <v>313224.29677419353</v>
-      </c>
-      <c r="I36" s="31">
-        <v>190282.23225806435</v>
-      </c>
-      <c r="J36" s="31">
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <v>210.88064516129032</v>
+      </c>
+      <c r="F36" s="28">
+        <v>163.22579956054688</v>
+      </c>
+      <c r="G36" s="30">
+        <v>8611.0806451612898</v>
+      </c>
+      <c r="H36" s="28">
+        <v>313283.90625</v>
+      </c>
+      <c r="I36" s="30">
+        <v>190282.21875</v>
+      </c>
+      <c r="J36" s="30">
         <v>131.42491935483872</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="31">
         <f t="shared" si="0"/>
-        <v>512416.58298387076</v>
+        <v>512682.73700923799</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="16"/>
@@ -4440,28 +4462,30 @@
       <c r="C37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="29">
-        <v>176.73333333333335</v>
-      </c>
-      <c r="G37" s="31">
-        <v>9052.373333333333</v>
-      </c>
-      <c r="H37" s="29">
-        <v>313943.83333333337</v>
-      </c>
-      <c r="I37" s="31">
-        <v>193214.95333333334</v>
-      </c>
-      <c r="J37" s="31">
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="30">
+        <v>91.563333333333333</v>
+      </c>
+      <c r="F37" s="28">
+        <v>176.73333740234375</v>
+      </c>
+      <c r="G37" s="30">
+        <v>9051.4800000000014</v>
+      </c>
+      <c r="H37" s="28">
+        <v>314054.625</v>
+      </c>
+      <c r="I37" s="30">
+        <v>193214.953125</v>
+      </c>
+      <c r="J37" s="30">
         <v>148.0009</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="31">
         <f t="shared" si="0"/>
-        <v>516535.89423333341</v>
+        <v>516737.35569573566</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
@@ -4472,28 +4496,30 @@
       <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="29">
-        <v>179.19354838709677</v>
-      </c>
-      <c r="G38" s="31">
-        <v>8868.9419354838719</v>
-      </c>
-      <c r="H38" s="29">
-        <v>274442.97741935484</v>
-      </c>
-      <c r="I38" s="31">
-        <v>185487.10000000003</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
+        <v>7.5064516129032253</v>
+      </c>
+      <c r="F38" s="28">
+        <v>179.19354248046875</v>
+      </c>
+      <c r="G38" s="30">
+        <v>8867.1064516129027</v>
+      </c>
+      <c r="H38" s="28">
+        <v>274496.875</v>
+      </c>
+      <c r="I38" s="30">
+        <v>185487.09375</v>
+      </c>
+      <c r="J38" s="30">
         <v>139.51614516129032</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="31">
         <f t="shared" si="0"/>
-        <v>469117.72904838715</v>
+        <v>469177.29134086758</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="16"/>
@@ -4504,28 +4530,30 @@
       <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="38">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29">
-        <v>180.86666666666667</v>
-      </c>
-      <c r="G39" s="31">
-        <v>8660.3733333333348</v>
-      </c>
-      <c r="H39" s="29">
-        <v>292767.98</v>
-      </c>
-      <c r="I39" s="31">
-        <v>180743.55999999991</v>
-      </c>
-      <c r="J39" s="31">
-        <v>151.38736666666665</v>
-      </c>
-      <c r="K39" s="32">
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28">
+        <v>180.86666870117188</v>
+      </c>
+      <c r="G39" s="30">
+        <v>8651.3933333333334</v>
+      </c>
+      <c r="H39" s="28">
+        <v>292812.28125</v>
+      </c>
+      <c r="I39" s="30">
+        <v>180743.5625</v>
+      </c>
+      <c r="J39" s="30">
+        <v>151.38736666666668</v>
+      </c>
+      <c r="K39" s="31">
         <f t="shared" si="0"/>
-        <v>482504.1673666666</v>
+        <v>482539.49111870117</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="16"/>
@@ -4536,28 +4564,30 @@
       <c r="C40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="38">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="29">
-        <v>181.22580645161287</v>
-      </c>
-      <c r="G40" s="31">
-        <v>8969.2741935483864</v>
-      </c>
-      <c r="H40" s="29">
-        <v>313554.35806451604</v>
-      </c>
-      <c r="I40" s="31">
-        <v>187091.01612903224</v>
-      </c>
-      <c r="J40" s="31">
-        <v>138.39966129032254</v>
-      </c>
-      <c r="K40" s="32">
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28">
+        <v>181.22579956054688</v>
+      </c>
+      <c r="G40" s="30">
+        <v>8930.8645161290315</v>
+      </c>
+      <c r="H40" s="28">
+        <v>313557.8125</v>
+      </c>
+      <c r="I40" s="30">
+        <v>187091.015625</v>
+      </c>
+      <c r="J40" s="30">
+        <v>138.39966129032257</v>
+      </c>
+      <c r="K40" s="31">
         <f t="shared" si="0"/>
-        <v>509934.27385483863</v>
+        <v>509899.31810197991</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="16"/>
@@ -4568,16 +4598,27 @@
       <c r="C41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29">
-        <v>314919.49032258062</v>
-      </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28">
+        <v>186.90322875976563</v>
+      </c>
+      <c r="G41" s="30">
+        <v>8763.351612903225</v>
+      </c>
+      <c r="H41" s="28">
+        <v>314809.84375</v>
+      </c>
+      <c r="I41" s="30">
+        <v>186857.125</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31">
+        <f t="shared" si="0"/>
+        <v>510617.223591663</v>
+      </c>
       <c r="L41" s="15"/>
       <c r="M41" s="16"/>
       <c r="Q41" s="17"/>
@@ -4587,14 +4628,27 @@
       <c r="C42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="28">
+        <v>186.53334045410156</v>
+      </c>
+      <c r="G42" s="30">
+        <v>8763.66</v>
+      </c>
+      <c r="H42" s="28">
+        <v>306052.34375</v>
+      </c>
+      <c r="I42" s="30">
+        <v>184120.046875</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31">
+        <f t="shared" si="0"/>
+        <v>499122.58396545408</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="16"/>
       <c r="Q42" s="17"/>
@@ -4604,14 +4658,16 @@
       <c r="C43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="28">
+        <v>307754.25</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="15"/>
       <c r="M43" s="16"/>
       <c r="Q43" s="17"/>
@@ -4621,14 +4677,14 @@
       <c r="C44" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="15"/>
       <c r="M44" s="16"/>
       <c r="Q44" s="17"/>
@@ -4638,14 +4694,14 @@
       <c r="C45" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="42"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="41"/>
       <c r="L45" s="22"/>
       <c r="M45" s="16"/>
       <c r="Q45" s="17"/>
@@ -4658,11 +4714,11 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K46" s="25">
-        <v>45230</v>
+      <c r="K46" s="60">
+        <v>45295</v>
       </c>
     </row>
   </sheetData>
@@ -4691,8 +4747,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4762,8 +4818,8 @@
       <c r="K6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="67" t="s">
         <v>0</v>
       </c>
@@ -4790,8 +4846,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="68"/>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
@@ -4802,8 +4858,8 @@
       <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="68"/>
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
@@ -4820,30 +4876,30 @@
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
         <v>12.12145165483871</v>
       </c>
-      <c r="F10" s="27">
-        <v>6.5969951161290314</v>
-      </c>
-      <c r="G10" s="28">
-        <v>318.3497271935484</v>
-      </c>
-      <c r="H10" s="27">
-        <v>9888.4446774599983</v>
-      </c>
-      <c r="I10" s="28">
-        <v>5547.3000725148377</v>
-      </c>
-      <c r="J10" s="28">
-        <v>5.9924644143903221</v>
-      </c>
-      <c r="K10" s="30">
+      <c r="F10" s="26">
+        <v>6.5969953247192388</v>
+      </c>
+      <c r="G10" s="27">
+        <v>318.36465045999995</v>
+      </c>
+      <c r="H10" s="26">
+        <v>9888.4455603250008</v>
+      </c>
+      <c r="I10" s="27">
+        <v>5547.3001365937498</v>
+      </c>
+      <c r="J10" s="27">
+        <v>5.9924644143903212</v>
+      </c>
+      <c r="K10" s="29">
         <f t="shared" ref="K10:K36" si="0">SUM(D10:J10)</f>
-        <v>15778.805388353743</v>
+        <v>15778.821258772699</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
@@ -4855,30 +4911,30 @@
       <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
         <v>11.415192202857142</v>
       </c>
-      <c r="F11" s="29">
-        <v>6.620226264285713</v>
-      </c>
-      <c r="G11" s="31">
-        <v>297.55829712857138</v>
-      </c>
-      <c r="H11" s="29">
-        <v>9583.3835413142879</v>
-      </c>
-      <c r="I11" s="31">
-        <v>5572.7065634150003</v>
-      </c>
-      <c r="J11" s="31">
-        <v>5.6882323495071416</v>
-      </c>
-      <c r="K11" s="32">
+      <c r="F11" s="28">
+        <v>6.6202260333465572</v>
+      </c>
+      <c r="G11" s="30">
+        <v>297.56422493642856</v>
+      </c>
+      <c r="H11" s="28">
+        <v>9583.3825953875003</v>
+      </c>
+      <c r="I11" s="30">
+        <v>5572.7062323406244</v>
+      </c>
+      <c r="J11" s="30">
+        <v>5.6882323495071425</v>
+      </c>
+      <c r="K11" s="31">
         <f t="shared" si="0"/>
-        <v>15477.372052674509</v>
+        <v>15477.376703250264</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
@@ -4889,30 +4945,30 @@
       <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="38">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
-        <v>10.526370915483872</v>
-      </c>
-      <c r="F12" s="29">
-        <v>6.4944688580645158</v>
-      </c>
-      <c r="G12" s="31">
-        <v>320.80443364774186</v>
-      </c>
-      <c r="H12" s="29">
-        <v>10095.519467070324</v>
-      </c>
-      <c r="I12" s="31">
-        <v>5586.0327840406444</v>
-      </c>
-      <c r="J12" s="31">
-        <v>6.030293755664518</v>
-      </c>
-      <c r="K12" s="32">
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>10.52637091548387</v>
+      </c>
+      <c r="F12" s="28">
+        <v>6.4944689623596181</v>
+      </c>
+      <c r="G12" s="30">
+        <v>320.53365040838713</v>
+      </c>
+      <c r="H12" s="28">
+        <v>10095.520442493749</v>
+      </c>
+      <c r="I12" s="30">
+        <v>5586.0325277249995</v>
+      </c>
+      <c r="J12" s="30">
+        <v>6.0302937556645171</v>
+      </c>
+      <c r="K12" s="31">
         <f t="shared" si="0"/>
-        <v>16025.407818287924</v>
+        <v>16025.137754260644</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
@@ -4923,30 +4979,30 @@
       <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>8.6908053446666678</v>
-      </c>
-      <c r="F13" s="29">
-        <v>6.9381417466666671</v>
-      </c>
-      <c r="G13" s="31">
-        <v>332.27271709333326</v>
-      </c>
-      <c r="H13" s="29">
-        <v>10149.910208969333</v>
-      </c>
-      <c r="I13" s="31">
-        <v>5698.9430154400006</v>
-      </c>
-      <c r="J13" s="31">
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>8.690805344666666</v>
+      </c>
+      <c r="F13" s="28">
+        <v>6.9381414951995843</v>
+      </c>
+      <c r="G13" s="30">
+        <v>332.26883248733333</v>
+      </c>
+      <c r="H13" s="28">
+        <v>10149.910444399999</v>
+      </c>
+      <c r="I13" s="30">
+        <v>5698.9432361562494</v>
+      </c>
+      <c r="J13" s="30">
         <v>6.6858995646699997</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <f t="shared" si="0"/>
-        <v>16203.440788158672</v>
+        <v>16203.437359448117</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
@@ -4957,30 +5013,30 @@
       <c r="C14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1.1391806451612904E-4</v>
-      </c>
-      <c r="F14" s="29">
-        <v>6.8738160129032257</v>
-      </c>
-      <c r="G14" s="31">
-        <v>325.01313654129029</v>
-      </c>
-      <c r="H14" s="29">
-        <v>9968.012230556129</v>
-      </c>
-      <c r="I14" s="31">
-        <v>5548.300500957419</v>
-      </c>
-      <c r="J14" s="31">
-        <v>6.7676375416903225</v>
-      </c>
-      <c r="K14" s="32">
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1.1391806451612903E-4</v>
+      </c>
+      <c r="F14" s="28">
+        <v>6.8738158564605705</v>
+      </c>
+      <c r="G14" s="30">
+        <v>325.05528622516124</v>
+      </c>
+      <c r="H14" s="28">
+        <v>9968.0115612874997</v>
+      </c>
+      <c r="I14" s="30">
+        <v>5548.3005329968755</v>
+      </c>
+      <c r="J14" s="30">
+        <v>6.7676375416903216</v>
+      </c>
+      <c r="K14" s="31">
         <f t="shared" si="0"/>
-        <v>15854.967435527496</v>
+        <v>15855.008947825752</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4991,30 +5047,30 @@
       <c r="C15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>7.6514966666666661E-3</v>
-      </c>
-      <c r="F15" s="29">
-        <v>7.2418473066666671</v>
-      </c>
-      <c r="G15" s="31">
-        <v>309.37308243866664</v>
-      </c>
-      <c r="H15" s="29">
-        <v>9867.4479111686651</v>
-      </c>
-      <c r="I15" s="31">
-        <v>5547.91836281</v>
-      </c>
-      <c r="J15" s="31">
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>7.651496666666667E-3</v>
+      </c>
+      <c r="F15" s="28">
+        <v>7.2418472707427979</v>
+      </c>
+      <c r="G15" s="30">
+        <v>309.4002746806666</v>
+      </c>
+      <c r="H15" s="28">
+        <v>9867.4488234625005</v>
+      </c>
+      <c r="I15" s="30">
+        <v>5547.9181420937493</v>
+      </c>
+      <c r="J15" s="30">
         <v>5.8958554593099999</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f t="shared" si="0"/>
-        <v>15737.884710679975</v>
+        <v>15737.912594463636</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
@@ -5025,30 +5081,30 @@
       <c r="C16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
         <v>2.2783612903225807E-3</v>
       </c>
-      <c r="F16" s="29">
-        <v>7.5174530774193551</v>
-      </c>
-      <c r="G16" s="31">
-        <v>317.093552696129</v>
-      </c>
-      <c r="H16" s="29">
-        <v>10077.697213712901</v>
-      </c>
-      <c r="I16" s="31">
-        <v>5616.4104029606442</v>
-      </c>
-      <c r="J16" s="31">
-        <v>1.7527336576096773</v>
-      </c>
-      <c r="K16" s="32">
+      <c r="F16" s="28">
+        <v>7.5174532164794918</v>
+      </c>
+      <c r="G16" s="30">
+        <v>317.11804508</v>
+      </c>
+      <c r="H16" s="28">
+        <v>10077.696501724999</v>
+      </c>
+      <c r="I16" s="30">
+        <v>5616.4108087937502</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1.7527336576096775</v>
+      </c>
+      <c r="K16" s="31">
         <f t="shared" si="0"/>
-        <v>16020.473634465994</v>
+        <v>16020.497820834127</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
@@ -5062,30 +5118,30 @@
       <c r="C17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
-        <v>7.5185922580645161E-3</v>
-      </c>
-      <c r="F17" s="29">
-        <v>5.9351311612903217</v>
-      </c>
-      <c r="G17" s="31">
-        <v>315.18474160709673</v>
-      </c>
-      <c r="H17" s="29">
-        <v>10214.095413408386</v>
-      </c>
-      <c r="I17" s="31">
-        <v>5815.541913768383</v>
-      </c>
-      <c r="J17" s="31">
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>7.5185922580645152E-3</v>
+      </c>
+      <c r="F17" s="28">
+        <v>5.9351310917602538</v>
+      </c>
+      <c r="G17" s="30">
+        <v>315.34297379870969</v>
+      </c>
+      <c r="H17" s="28">
+        <v>10214.095833481249</v>
+      </c>
+      <c r="I17" s="30">
+        <v>5815.5415613343748</v>
+      </c>
+      <c r="J17" s="30">
         <v>1.0811616053129032</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <f t="shared" si="0"/>
-        <v>16351.845880142728</v>
+        <v>16352.004179903664</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
@@ -5096,30 +5152,30 @@
       <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
         <v>5.6267929333333327E-2</v>
       </c>
-      <c r="F18" s="36">
-        <v>5.48082592</v>
-      </c>
-      <c r="G18" s="31">
-        <v>320.83773189800002</v>
-      </c>
-      <c r="H18" s="29">
-        <v>10022.56776253</v>
-      </c>
-      <c r="I18" s="31">
-        <v>5917.7676977486663</v>
-      </c>
-      <c r="J18" s="31">
-        <v>6.7215308189166665</v>
-      </c>
-      <c r="K18" s="32">
+      <c r="F18" s="35">
+        <v>5.4808258122283933</v>
+      </c>
+      <c r="G18" s="30">
+        <v>320.65280110933338</v>
+      </c>
+      <c r="H18" s="28">
+        <v>10022.568203962499</v>
+      </c>
+      <c r="I18" s="30">
+        <v>5917.7673961031251</v>
+      </c>
+      <c r="J18" s="30">
+        <v>6.7215308189166674</v>
+      </c>
+      <c r="K18" s="31">
         <f t="shared" si="0"/>
-        <v>16273.431816844915</v>
+        <v>16273.247025735436</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
@@ -5130,30 +5186,30 @@
       <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="38">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
-        <v>2.4606301935483875E-2</v>
-      </c>
-      <c r="F19" s="36">
-        <v>6.7690113935483867</v>
-      </c>
-      <c r="G19" s="31">
-        <v>323.56819981096777</v>
-      </c>
-      <c r="H19" s="29">
-        <v>10249.531336147094</v>
-      </c>
-      <c r="I19" s="31">
-        <v>5703.4690940612891</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <v>2.4606301935483871E-2</v>
+      </c>
+      <c r="F19" s="35">
+        <v>6.7690112023406988</v>
+      </c>
+      <c r="G19" s="30">
+        <v>322.23513062000001</v>
+      </c>
+      <c r="H19" s="28">
+        <v>10249.530723837499</v>
+      </c>
+      <c r="I19" s="30">
+        <v>5703.4690228624995</v>
+      </c>
+      <c r="J19" s="30">
         <v>6.1265602160838712</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <f t="shared" si="0"/>
-        <v>16289.488807930918</v>
+        <v>16288.155055040357</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
@@ -5164,64 +5220,64 @@
       <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="38">
-        <v>0</v>
-      </c>
-      <c r="E20" s="31">
-        <v>8.7965137140000014</v>
-      </c>
-      <c r="F20" s="29">
-        <v>6.7168369200000004</v>
-      </c>
-      <c r="G20" s="31">
-        <v>321.94555089999994</v>
-      </c>
-      <c r="H20" s="29">
-        <v>10430.482233947334</v>
-      </c>
-      <c r="I20" s="31">
-        <v>6073.4942539379999</v>
-      </c>
-      <c r="J20" s="31">
-        <v>6.6331319007733338</v>
-      </c>
-      <c r="K20" s="32">
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <v>8.7965137139999996</v>
+      </c>
+      <c r="F20" s="28">
+        <v>6.7168368122283937</v>
+      </c>
+      <c r="G20" s="30">
+        <v>322.27821443200003</v>
+      </c>
+      <c r="H20" s="28">
+        <v>10430.48163065625</v>
+      </c>
+      <c r="I20" s="30">
+        <v>6073.4942980812493</v>
+      </c>
+      <c r="J20" s="30">
+        <v>6.6331319007733329</v>
+      </c>
+      <c r="K20" s="31">
         <f t="shared" si="0"/>
-        <v>16848.068521320107</v>
+        <v>16848.4006255965</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="44">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
         <v>11.714422410322582</v>
       </c>
-      <c r="F21" s="31">
-        <v>6.6072477419354838</v>
-      </c>
-      <c r="G21" s="31">
-        <v>308.5352302632258</v>
-      </c>
-      <c r="H21" s="31">
-        <v>10125.094419307739</v>
-      </c>
-      <c r="I21" s="31">
-        <v>6031.3211826883871</v>
-      </c>
-      <c r="J21" s="31">
-        <v>6.8458958344709684</v>
-      </c>
-      <c r="K21" s="32">
+      <c r="F21" s="30">
+        <v>6.6072476376403806</v>
+      </c>
+      <c r="G21" s="30">
+        <v>308.83005021419353</v>
+      </c>
+      <c r="H21" s="30">
+        <v>10125.0953164125</v>
+      </c>
+      <c r="I21" s="30">
+        <v>6031.3214924031245</v>
+      </c>
+      <c r="J21" s="30">
+        <v>6.8458958344709666</v>
+      </c>
+      <c r="K21" s="31">
         <f t="shared" si="0"/>
-        <v>16490.118398246079</v>
+        <v>16490.414424912251</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="16"/>
@@ -5234,30 +5290,30 @@
       <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="44">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22" s="43">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
         <v>10.157732058709678</v>
       </c>
-      <c r="F22" s="29">
-        <v>5.6321091096774198</v>
-      </c>
-      <c r="G22" s="31">
-        <v>300.47210965677414</v>
-      </c>
-      <c r="H22" s="29">
-        <v>10223.520310558068</v>
-      </c>
-      <c r="I22" s="31">
-        <v>6021.9009561793546</v>
-      </c>
-      <c r="J22" s="31">
-        <v>6.4856100197774191</v>
-      </c>
-      <c r="K22" s="32">
+      <c r="F22" s="28">
+        <v>5.6321091270599357</v>
+      </c>
+      <c r="G22" s="30">
+        <v>301.36875874258067</v>
+      </c>
+      <c r="H22" s="28">
+        <v>10223.519313774999</v>
+      </c>
+      <c r="I22" s="30">
+        <v>6021.9007710624992</v>
+      </c>
+      <c r="J22" s="30">
+        <v>6.48561001977742</v>
+      </c>
+      <c r="K22" s="31">
         <f t="shared" si="0"/>
-        <v>16568.168827582358</v>
+        <v>16569.064294785625</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
@@ -5265,30 +5321,30 @@
       <c r="C23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="44">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31">
-        <v>9.7965222871428583</v>
-      </c>
-      <c r="F23" s="29">
-        <v>5.6667320642857133</v>
-      </c>
-      <c r="G23" s="31">
-        <v>300.88985126785713</v>
-      </c>
-      <c r="H23" s="29">
-        <v>10484.327472413572</v>
-      </c>
-      <c r="I23" s="31">
-        <v>6118.1367767078555</v>
-      </c>
-      <c r="J23" s="31">
-        <v>6.2662686591035719</v>
-      </c>
-      <c r="K23" s="32">
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <v>9.7965222871428566</v>
+      </c>
+      <c r="F23" s="28">
+        <v>5.6667318333465575</v>
+      </c>
+      <c r="G23" s="30">
+        <v>301.52336996714286</v>
+      </c>
+      <c r="H23" s="28">
+        <v>10484.32756700625</v>
+      </c>
+      <c r="I23" s="30">
+        <v>6118.1363668062495</v>
+      </c>
+      <c r="J23" s="30">
+        <v>6.266268659103571</v>
+      </c>
+      <c r="K23" s="31">
         <f t="shared" si="0"/>
-        <v>16925.083623399816</v>
+        <v>16925.716826559237</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
@@ -5296,30 +5352,30 @@
       <c r="C24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="44">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
-        <v>8.3660287400000009</v>
-      </c>
-      <c r="F24" s="29">
-        <v>5.7676716064516125</v>
-      </c>
-      <c r="G24" s="31">
-        <v>312.4627833735484</v>
-      </c>
-      <c r="H24" s="29">
-        <v>10703.725279488388</v>
-      </c>
-      <c r="I24" s="31">
-        <v>6131.7285647529025</v>
-      </c>
-      <c r="J24" s="31">
-        <v>5.9450107054354842</v>
-      </c>
-      <c r="K24" s="32">
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>8.3660287399999991</v>
+      </c>
+      <c r="F24" s="28">
+        <v>5.7676717976593013</v>
+      </c>
+      <c r="G24" s="30">
+        <v>313.49977951483868</v>
+      </c>
+      <c r="H24" s="28">
+        <v>10703.7250374125</v>
+      </c>
+      <c r="I24" s="30">
+        <v>6131.728625271875</v>
+      </c>
+      <c r="J24" s="30">
+        <v>5.945010705435485</v>
+      </c>
+      <c r="K24" s="31">
         <f t="shared" si="0"/>
-        <v>17167.995338666726</v>
+        <v>17169.032153442309</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
@@ -5327,30 +5383,30 @@
       <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="38">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
-        <v>4.366650289999999</v>
-      </c>
-      <c r="F25" s="29">
-        <v>6.2271411333333333</v>
-      </c>
-      <c r="G25" s="31">
-        <v>306.18064259866668</v>
-      </c>
-      <c r="H25" s="29">
-        <v>10963.275723023331</v>
-      </c>
-      <c r="I25" s="31">
-        <v>6242.8431816466637</v>
-      </c>
-      <c r="J25" s="31">
-        <v>5.9942354605666672</v>
-      </c>
-      <c r="K25" s="32">
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4.3666502899999999</v>
+      </c>
+      <c r="F25" s="28">
+        <v>6.227140953713989</v>
+      </c>
+      <c r="G25" s="30">
+        <v>307.52883631133335</v>
+      </c>
+      <c r="H25" s="28">
+        <v>10963.276311600001</v>
+      </c>
+      <c r="I25" s="30">
+        <v>6242.8432552187505</v>
+      </c>
+      <c r="J25" s="30">
+        <v>5.9942354605666663</v>
+      </c>
+      <c r="K25" s="31">
         <f t="shared" si="0"/>
-        <v>17528.887574152563</v>
+        <v>17530.236429834364</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
@@ -5358,28 +5414,30 @@
       <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29">
-        <v>6.6528149677419348</v>
-      </c>
-      <c r="G26" s="31">
-        <v>312.47941541096776</v>
-      </c>
-      <c r="H26" s="29">
-        <v>10665.409052406452</v>
-      </c>
-      <c r="I26" s="31">
-        <v>6171.040093964516</v>
-      </c>
-      <c r="J26" s="31">
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1.6973791612903227E-2</v>
+      </c>
+      <c r="F26" s="28">
+        <v>6.6528150894195557</v>
+      </c>
+      <c r="G26" s="30">
+        <v>313.29244863741934</v>
+      </c>
+      <c r="H26" s="28">
+        <v>10665.408696412498</v>
+      </c>
+      <c r="I26" s="30">
+        <v>6171.0398447687503</v>
+      </c>
+      <c r="J26" s="30">
         <v>6.6779914295903229</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <f t="shared" si="0"/>
-        <v>17162.259368179268</v>
+        <v>17163.088770129292</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -5387,28 +5445,30 @@
       <c r="C27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="38">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="29">
-        <v>6.9864050333333321</v>
-      </c>
-      <c r="G27" s="31">
-        <v>306.80112012066667</v>
-      </c>
-      <c r="H27" s="29">
-        <v>10532.79840052</v>
-      </c>
-      <c r="I27" s="31">
-        <v>6112.950785656667</v>
-      </c>
-      <c r="J27" s="31">
+      <c r="D27" s="37">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1.4714416666666667E-2</v>
+      </c>
+      <c r="F27" s="28">
+        <v>6.9864048537139887</v>
+      </c>
+      <c r="G27" s="30">
+        <v>306.48270014399998</v>
+      </c>
+      <c r="H27" s="28">
+        <v>10532.7979590875</v>
+      </c>
+      <c r="I27" s="30">
+        <v>6112.9506385125005</v>
+      </c>
+      <c r="J27" s="30">
         <v>6.1818207300000001</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <f t="shared" si="0"/>
-        <v>16965.718532060666</v>
+        <v>16965.414237744382</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
@@ -5416,28 +5476,30 @@
       <c r="C28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="29">
-        <v>6.928496683870967</v>
-      </c>
-      <c r="G28" s="31">
-        <v>305.1329533483871</v>
-      </c>
-      <c r="H28" s="29">
-        <v>10917.299664269678</v>
-      </c>
-      <c r="I28" s="31">
-        <v>6258.8673902464516</v>
-      </c>
-      <c r="J28" s="31">
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
+      <c r="E28" s="30">
+        <v>1.3442331612903227E-2</v>
+      </c>
+      <c r="F28" s="28">
+        <v>6.9284964752807614</v>
+      </c>
+      <c r="G28" s="30">
+        <v>304.48817710322584</v>
+      </c>
+      <c r="H28" s="28">
+        <v>10917.300013143751</v>
+      </c>
+      <c r="I28" s="30">
+        <v>6258.8672549687499</v>
+      </c>
+      <c r="J28" s="30">
         <v>5.6942702103516121</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="31">
         <f t="shared" si="0"/>
-        <v>17493.922774758739</v>
+        <v>17493.291654232973</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
@@ -5445,28 +5507,30 @@
       <c r="C29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="38">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="29">
-        <v>7.0674767225806443</v>
-      </c>
-      <c r="G29" s="31">
-        <v>304.77661764258062</v>
-      </c>
-      <c r="H29" s="29">
-        <v>10783.093817725805</v>
-      </c>
-      <c r="I29" s="31">
-        <v>5983.0809834161273</v>
-      </c>
-      <c r="J29" s="31">
-        <v>5.5336821931645153</v>
-      </c>
-      <c r="K29" s="32">
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1.4239758064516128E-2</v>
+      </c>
+      <c r="F29" s="28">
+        <v>7.0674765835205084</v>
+      </c>
+      <c r="G29" s="30">
+        <v>305.81053799612897</v>
+      </c>
+      <c r="H29" s="28">
+        <v>10783.0946009125</v>
+      </c>
+      <c r="I29" s="30">
+        <v>5983.0811970124996</v>
+      </c>
+      <c r="J29" s="30">
+        <v>5.5336821931645161</v>
+      </c>
+      <c r="K29" s="31">
         <f t="shared" si="0"/>
-        <v>17083.552577700255</v>
+        <v>17084.601734455879</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -5474,28 +5538,30 @@
       <c r="C30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="38">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="36">
-        <v>7.0688057666666664</v>
-      </c>
-      <c r="G30" s="31">
-        <v>311.13716442399999</v>
-      </c>
-      <c r="H30" s="29">
-        <v>10869.406220194</v>
-      </c>
-      <c r="I30" s="31">
-        <v>6186.5448817573333</v>
-      </c>
-      <c r="J30" s="31">
-        <v>4.834661146536666</v>
-      </c>
-      <c r="K30" s="32">
+      <c r="D30" s="37">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>7.0688059462860107</v>
+      </c>
+      <c r="G30" s="30">
+        <v>311.10844188266663</v>
+      </c>
+      <c r="H30" s="28">
+        <v>10869.405690475</v>
+      </c>
+      <c r="I30" s="30">
+        <v>6186.5446095406251</v>
+      </c>
+      <c r="J30" s="30">
+        <v>4.8346611465366669</v>
+      </c>
+      <c r="K30" s="31">
         <f t="shared" si="0"/>
-        <v>17378.991733288534</v>
+        <v>17378.962208991114</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -5503,28 +5569,30 @@
       <c r="C31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="36">
-        <v>6.5069998451612907</v>
-      </c>
-      <c r="G31" s="31">
-        <v>320.1132927503225</v>
-      </c>
-      <c r="H31" s="29">
-        <v>10934.080592599352</v>
-      </c>
-      <c r="I31" s="31">
-        <v>6493.0493250625805</v>
-      </c>
-      <c r="J31" s="31">
-        <v>5.6928564871709675</v>
-      </c>
-      <c r="K31" s="32">
+      <c r="D31" s="37">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0.58394399870967739</v>
+      </c>
+      <c r="F31" s="35">
+        <v>6.5070001058990474</v>
+      </c>
+      <c r="G31" s="30">
+        <v>319.96531318451605</v>
+      </c>
+      <c r="H31" s="28">
+        <v>10934.081069631249</v>
+      </c>
+      <c r="I31" s="30">
+        <v>6493.0494033812502</v>
+      </c>
+      <c r="J31" s="30">
+        <v>5.6928564871709684</v>
+      </c>
+      <c r="K31" s="31">
         <f t="shared" si="0"/>
-        <v>17759.443066744585</v>
+        <v>17759.879586788797</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -5532,28 +5600,30 @@
       <c r="C32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="38">
-        <v>0</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="29">
-        <v>6.1423860933333332</v>
-      </c>
-      <c r="G32" s="31">
-        <v>314.59705350133333</v>
-      </c>
-      <c r="H32" s="29">
-        <v>10988.456209976666</v>
-      </c>
-      <c r="I32" s="31">
-        <v>6633.1469683359965</v>
-      </c>
-      <c r="J32" s="31">
+      <c r="D32" s="37">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <v>11.131161919999998</v>
+      </c>
+      <c r="F32" s="28">
+        <v>6.1423861292572024</v>
+      </c>
+      <c r="G32" s="30">
+        <v>314.82318465666668</v>
+      </c>
+      <c r="H32" s="28">
+        <v>10988.455621399999</v>
+      </c>
+      <c r="I32" s="30">
+        <v>6633.1473876968748</v>
+      </c>
+      <c r="J32" s="30">
         <v>5.7595928980566669</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="31">
         <f t="shared" si="0"/>
-        <v>17948.102210805384</v>
+        <v>17959.459334700852</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -5561,28 +5631,30 @@
       <c r="C33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="38">
-        <v>0</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="29">
-        <v>5.3564273935483868</v>
-      </c>
-      <c r="G33" s="31">
-        <v>297.23626703419359</v>
-      </c>
-      <c r="H33" s="29">
-        <v>10715.921119639353</v>
-      </c>
-      <c r="I33" s="31">
-        <v>6644.9175979193496</v>
-      </c>
-      <c r="J33" s="31">
+      <c r="D33" s="37">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <v>11.303975623870967</v>
+      </c>
+      <c r="F33" s="28">
+        <v>5.356427202340698</v>
+      </c>
+      <c r="G33" s="30">
+        <v>297.42525710322582</v>
+      </c>
+      <c r="H33" s="28">
+        <v>10715.9218173875</v>
+      </c>
+      <c r="I33" s="30">
+        <v>6644.9176335187494</v>
+      </c>
+      <c r="J33" s="30">
         <v>5.8408668108548385</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="31">
         <f t="shared" si="0"/>
-        <v>17669.272278797296</v>
+        <v>17680.765977646537</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -5592,28 +5664,30 @@
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="38">
-        <v>0</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="29">
-        <v>5.9226001741935486</v>
-      </c>
-      <c r="G34" s="31">
-        <v>300.60414069354835</v>
-      </c>
-      <c r="H34" s="29">
-        <v>11070.966247692902</v>
-      </c>
-      <c r="I34" s="31">
-        <v>6639.4134187961281</v>
-      </c>
-      <c r="J34" s="31">
-        <v>4.8295796983645172</v>
-      </c>
-      <c r="K34" s="32">
+      <c r="D34" s="37">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>8.9783383367741934</v>
+      </c>
+      <c r="F34" s="28">
+        <v>5.9225999482208254</v>
+      </c>
+      <c r="G34" s="30">
+        <v>300.50389279677415</v>
+      </c>
+      <c r="H34" s="28">
+        <v>11072.679838818749</v>
+      </c>
+      <c r="I34" s="30">
+        <v>6639.4135220343742</v>
+      </c>
+      <c r="J34" s="30">
+        <v>4.8295796983645163</v>
+      </c>
+      <c r="K34" s="31">
         <f t="shared" si="0"/>
-        <v>18021.735987055137</v>
+        <v>18032.32777163326</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -5621,28 +5695,30 @@
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="29">
-        <v>5.4081787428571433</v>
-      </c>
-      <c r="G35" s="31">
-        <v>309.54129765000005</v>
-      </c>
-      <c r="H35" s="29">
-        <v>11119.326862427857</v>
-      </c>
-      <c r="I35" s="31">
-        <v>6508.3960249599986</v>
-      </c>
-      <c r="J35" s="31">
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="30">
+        <v>9.0995634314285709</v>
+      </c>
+      <c r="F35" s="28">
+        <v>5.4081785888977052</v>
+      </c>
+      <c r="G35" s="30">
+        <v>309.58417966428573</v>
+      </c>
+      <c r="H35" s="28">
+        <v>11120.41634936875</v>
+      </c>
+      <c r="I35" s="30">
+        <v>6508.3963560343755</v>
+      </c>
+      <c r="J35" s="30">
         <v>4.8211832453642858</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="31">
         <f t="shared" si="0"/>
-        <v>17947.493547026079</v>
+        <v>17957.725810333101</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -5650,28 +5726,30 @@
       <c r="C36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="38">
-        <v>0</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="29">
-        <v>5.7642540645161287</v>
-      </c>
-      <c r="G36" s="31">
-        <v>304.24951875806448</v>
-      </c>
-      <c r="H36" s="29">
-        <v>11061.390750861934</v>
-      </c>
-      <c r="I36" s="31">
-        <v>6719.7409193006388</v>
-      </c>
-      <c r="J36" s="31">
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <v>7.4471656316129025</v>
+      </c>
+      <c r="F36" s="28">
+        <v>5.7642538211608878</v>
+      </c>
+      <c r="G36" s="30">
+        <v>304.09686855161283</v>
+      </c>
+      <c r="H36" s="28">
+        <v>11063.495835656249</v>
+      </c>
+      <c r="I36" s="30">
+        <v>6719.7404422687496</v>
+      </c>
+      <c r="J36" s="30">
         <v>4.641218457048387</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="31">
         <f t="shared" si="0"/>
-        <v>18095.786661442198</v>
+        <v>18105.185784386431</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -5679,28 +5757,30 @@
       <c r="C37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="29">
-        <v>6.2412669733333335</v>
-      </c>
-      <c r="G37" s="31">
-        <v>319.68094331733334</v>
-      </c>
-      <c r="H37" s="29">
-        <v>11086.800896633335</v>
-      </c>
-      <c r="I37" s="31">
-        <v>6823.308790985333</v>
-      </c>
-      <c r="J37" s="31">
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="30">
+        <v>3.2335224913333329</v>
+      </c>
+      <c r="F37" s="28">
+        <v>6.2412671170288085</v>
+      </c>
+      <c r="G37" s="30">
+        <v>319.64939560800002</v>
+      </c>
+      <c r="H37" s="28">
+        <v>11090.713460024999</v>
+      </c>
+      <c r="I37" s="30">
+        <v>6823.3087836281247</v>
+      </c>
+      <c r="J37" s="30">
         <v>5.2265925831399995</v>
       </c>
-      <c r="K37" s="32">
-        <f>SUM(D37:J37)</f>
-        <v>18241.258490492477</v>
+      <c r="K37" s="31">
+        <f t="shared" ref="K37:K42" si="1">SUM(D37:J37)</f>
+        <v>18248.373021452626</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -5708,28 +5788,30 @@
       <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="29">
-        <v>6.3281484838709678</v>
-      </c>
-      <c r="G38" s="31">
-        <v>313.20313687483872</v>
-      </c>
-      <c r="H38" s="29">
-        <v>9691.8439703735494</v>
-      </c>
-      <c r="I38" s="31">
-        <v>6550.4027416600011</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0.26508733612903224</v>
+      </c>
+      <c r="F38" s="28">
+        <v>6.3281482752807614</v>
+      </c>
+      <c r="G38" s="30">
+        <v>313.13831749612905</v>
+      </c>
+      <c r="H38" s="28">
+        <v>9693.7473418749996</v>
+      </c>
+      <c r="I38" s="30">
+        <v>6550.4025209437505</v>
+      </c>
+      <c r="J38" s="30">
         <v>4.9269568599129032</v>
       </c>
-      <c r="K38" s="32">
-        <f>SUM(D38:J38)</f>
-        <v>16566.704954252171</v>
+      <c r="K38" s="31">
+        <f t="shared" si="1"/>
+        <v>16568.808372786199</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -5737,28 +5819,30 @@
       <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="38">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29">
-        <v>6.3872339866666668</v>
-      </c>
-      <c r="G39" s="31">
-        <v>305.83762011733336</v>
-      </c>
-      <c r="H39" s="29">
-        <v>10338.984106507998</v>
-      </c>
-      <c r="I39" s="31">
-        <v>6382.8865239759971</v>
-      </c>
-      <c r="J39" s="31">
-        <v>5.3461842988866666</v>
-      </c>
-      <c r="K39" s="32">
-        <f>SUM(D39:J39)</f>
-        <v>17039.441668886884</v>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28">
+        <v>6.3872340585144043</v>
+      </c>
+      <c r="G39" s="30">
+        <v>305.52049500933333</v>
+      </c>
+      <c r="H39" s="28">
+        <v>10340.548587431251</v>
+      </c>
+      <c r="I39" s="30">
+        <v>6382.8866122624995</v>
+      </c>
+      <c r="J39" s="30">
+        <v>5.3461842988866675</v>
+      </c>
+      <c r="K39" s="31">
+        <f t="shared" si="1"/>
+        <v>17040.689113060485</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -5766,28 +5850,30 @@
       <c r="C40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="38">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="29">
-        <v>6.3999168645161282</v>
-      </c>
-      <c r="G40" s="31">
-        <v>316.74633043548386</v>
-      </c>
-      <c r="H40" s="29">
-        <v>11073.046733305158</v>
-      </c>
-      <c r="I40" s="31">
-        <v>6607.0443981903218</v>
-      </c>
-      <c r="J40" s="31">
-        <v>4.8875286786032248</v>
-      </c>
-      <c r="K40" s="32">
-        <f>SUM(D40:J40)</f>
-        <v>18008.124907474081</v>
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28">
+        <v>6.3999166211608882</v>
+      </c>
+      <c r="G40" s="30">
+        <v>315.38990804129025</v>
+      </c>
+      <c r="H40" s="28">
+        <v>11073.1687253125</v>
+      </c>
+      <c r="I40" s="30">
+        <v>6607.0443803906255</v>
+      </c>
+      <c r="J40" s="30">
+        <v>4.8875286786032257</v>
+      </c>
+      <c r="K40" s="31">
+        <f t="shared" si="1"/>
+        <v>18006.890459044178</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -5795,72 +5881,98 @@
       <c r="C41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29">
-        <v>11121.255832945804</v>
-      </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28">
+        <v>6.6004127623596185</v>
+      </c>
+      <c r="G41" s="30">
+        <v>309.47425686903222</v>
+      </c>
+      <c r="H41" s="28">
+        <v>11117.38370809375</v>
+      </c>
+      <c r="I41" s="30">
+        <v>6598.784626525</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31">
+        <f t="shared" si="1"/>
+        <v>18032.243004250144</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="28">
+        <v>6.5873503048004141</v>
+      </c>
+      <c r="G42" s="30">
+        <v>309.48514743599998</v>
+      </c>
+      <c r="H42" s="28">
+        <v>10808.116098593749</v>
+      </c>
+      <c r="I42" s="30">
+        <v>6502.1258073718755</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31">
+        <f t="shared" si="1"/>
+        <v>17626.314403706427</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="C43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="28">
+        <v>10868.21823705</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
       <c r="C45" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="42"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C46" s="23"/>
@@ -5870,11 +5982,11 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K46" s="25">
-        <v>45230</v>
+      <c r="K46" s="60">
+        <v>45295</v>
       </c>
     </row>
   </sheetData>
@@ -5901,8 +6013,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="L295" sqref="L295"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12851,7 +12963,7 @@
         <v>182.36379032258063</v>
       </c>
       <c r="K240" s="1">
-        <f t="shared" ref="K240:K294" si="5">SUM(C240:I240)</f>
+        <f t="shared" ref="K240:K296" si="5">SUM(C240:I240)</f>
         <v>453767.596048387</v>
       </c>
     </row>
@@ -13553,26 +13665,26 @@
         <v>0</v>
       </c>
       <c r="D264" s="1">
-        <v>343.24193548387092</v>
+        <v>343.24193548387098</v>
       </c>
       <c r="E264" s="1">
-        <v>186.8064516129032</v>
+        <v>186.80645751953125</v>
       </c>
       <c r="F264" s="1">
-        <v>9014.677419354839</v>
+        <v>9015.0999999999985</v>
       </c>
       <c r="G264" s="1">
-        <v>280010.09999999998</v>
+        <v>280010.125</v>
       </c>
       <c r="H264" s="1">
-        <v>157082.34193548383</v>
+        <v>157082.34375</v>
       </c>
       <c r="I264" s="1">
-        <v>169.68801612903226</v>
+        <v>169.68801612903223</v>
       </c>
       <c r="K264" s="1">
         <f t="shared" si="5"/>
-        <v>446806.85575806448</v>
+        <v>446807.3051591324</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -13586,23 +13698,23 @@
         <v>323.24285714285713</v>
       </c>
       <c r="E265" s="1">
-        <v>187.46428571428569</v>
+        <v>187.46427917480469</v>
       </c>
       <c r="F265" s="1">
-        <v>8425.9285714285706</v>
+        <v>8426.096428571429</v>
       </c>
       <c r="G265" s="1">
-        <v>271371.71428571432</v>
+        <v>271371.6875</v>
       </c>
       <c r="H265" s="1">
-        <v>157801.77500000002</v>
+        <v>157801.765625</v>
       </c>
       <c r="I265" s="1">
-        <v>161.07310714285711</v>
+        <v>161.07310714285714</v>
       </c>
       <c r="K265" s="1">
         <f t="shared" si="5"/>
-        <v>438271.19810714293</v>
+        <v>438271.32979703194</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -13616,23 +13728,23 @@
         <v>298.07419354838709</v>
       </c>
       <c r="E266" s="1">
-        <v>183.90322580645162</v>
+        <v>183.90322875976563</v>
       </c>
       <c r="F266" s="1">
-        <v>9084.1870967741925</v>
+        <v>9076.5193548387106</v>
       </c>
       <c r="G266" s="1">
-        <v>285873.81612903235</v>
+        <v>285873.84375</v>
       </c>
       <c r="H266" s="1">
-        <v>158179.13225806449</v>
+        <v>158179.125</v>
       </c>
       <c r="I266" s="1">
-        <v>170.75922580645167</v>
+        <v>170.75922580645164</v>
       </c>
       <c r="K266" s="1">
         <f t="shared" si="5"/>
-        <v>453789.87212903227</v>
+        <v>453782.22475295333</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -13646,23 +13758,23 @@
         <v>246.09666666666666</v>
       </c>
       <c r="E267" s="1">
-        <v>196.46666666666667</v>
+        <v>196.46665954589844</v>
       </c>
       <c r="F267" s="1">
-        <v>9408.9333333333325</v>
+        <v>9408.8233333333337</v>
       </c>
       <c r="G267" s="1">
-        <v>287413.99333333335</v>
+        <v>287414</v>
       </c>
       <c r="H267" s="1">
-        <v>161376.40000000002</v>
+        <v>161376.40625</v>
       </c>
       <c r="I267" s="1">
         <v>189.32395</v>
       </c>
       <c r="K267" s="1">
         <f t="shared" si="5"/>
-        <v>458831.21395</v>
+        <v>458831.11685954587</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -13676,23 +13788,23 @@
         <v>3.2258064516129032E-3</v>
       </c>
       <c r="E268" s="1">
-        <v>194.64516129032259</v>
+        <v>194.64515686035156</v>
       </c>
       <c r="F268" s="1">
-        <v>9203.3645161290315</v>
+        <v>9204.5580645161281</v>
       </c>
       <c r="G268" s="1">
-        <v>282263.20645161293</v>
+        <v>282263.1875</v>
       </c>
       <c r="H268" s="1">
-        <v>157110.67096774193</v>
+        <v>157110.671875</v>
       </c>
       <c r="I268" s="1">
-        <v>191.63851612903227</v>
+        <v>191.63851612903224</v>
       </c>
       <c r="K268" s="1">
         <f t="shared" si="5"/>
-        <v>448963.5288387097</v>
+        <v>448964.70433831197</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -13703,26 +13815,26 @@
         <v>0</v>
       </c>
       <c r="D269" s="1">
-        <v>0.21666666666666665</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="E269" s="1">
-        <v>205.06666666666666</v>
+        <v>205.06666564941406</v>
       </c>
       <c r="F269" s="1">
-        <v>8760.4866666666676</v>
+        <v>8761.2566666666644</v>
       </c>
       <c r="G269" s="1">
-        <v>279415.53666666662</v>
+        <v>279415.5625</v>
       </c>
       <c r="H269" s="1">
-        <v>157099.85</v>
+        <v>157099.84375</v>
       </c>
       <c r="I269" s="1">
         <v>166.95235</v>
       </c>
       <c r="K269" s="1">
         <f t="shared" si="5"/>
-        <v>445648.1090166666</v>
+        <v>445648.89859898272</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -13736,23 +13848,23 @@
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="E270" s="1">
-        <v>212.87096774193552</v>
+        <v>212.8709716796875</v>
       </c>
       <c r="F270" s="1">
-        <v>8979.1064516129027</v>
+        <v>8979.8000000000011</v>
       </c>
       <c r="G270" s="1">
-        <v>285369.1451612903</v>
+        <v>285369.125</v>
       </c>
       <c r="H270" s="1">
-        <v>159039.3322580645</v>
+        <v>159039.34375</v>
       </c>
       <c r="I270" s="1">
-        <v>49.631983870967737</v>
+        <v>49.631983870967744</v>
       </c>
       <c r="K270" s="1">
         <f t="shared" si="5"/>
-        <v>453650.15133870963</v>
+        <v>453650.8362216797</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -13766,23 +13878,23 @@
         <v>0.2129032258064516</v>
       </c>
       <c r="E271" s="1">
-        <v>168.06451612903223</v>
+        <v>168.06451416015625</v>
       </c>
       <c r="F271" s="1">
-        <v>8925.0548387096769</v>
+        <v>8929.5354838709682</v>
       </c>
       <c r="G271" s="1">
-        <v>289231.51935483865</v>
+        <v>289231.53125</v>
       </c>
       <c r="H271" s="1">
-        <v>164678.11935483859</v>
+        <v>164678.109375</v>
       </c>
       <c r="I271" s="1">
         <v>30.615145161290322</v>
       </c>
       <c r="K271" s="1">
         <f t="shared" si="5"/>
-        <v>463033.58611290308</v>
+        <v>463038.06867141824</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -13793,26 +13905,26 @@
         <v>0</v>
       </c>
       <c r="D272" s="1">
-        <v>1.593333333333333</v>
+        <v>1.5933333333333333</v>
       </c>
       <c r="E272" s="1">
-        <v>155.20000000000002</v>
+        <v>155.19999694824219</v>
       </c>
       <c r="F272" s="1">
-        <v>9085.130000000001</v>
+        <v>9079.8933333333352</v>
       </c>
       <c r="G272" s="1">
-        <v>283808.05</v>
+        <v>283808.0625</v>
       </c>
       <c r="H272" s="1">
-        <v>167572.83666666667</v>
+        <v>167572.828125</v>
       </c>
       <c r="I272" s="1">
-        <v>190.33291666666665</v>
+        <v>190.33291666666668</v>
       </c>
       <c r="K272" s="1">
         <f t="shared" si="5"/>
-        <v>460813.14291666669</v>
+        <v>460807.91020528163</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -13826,23 +13938,23 @@
         <v>0.6967741935483871</v>
       </c>
       <c r="E273" s="1">
-        <v>191.67741935483869</v>
+        <v>191.67741394042969</v>
       </c>
       <c r="F273" s="1">
-        <v>9162.4483870967761</v>
+        <v>9124.7000000000007</v>
       </c>
       <c r="G273" s="1">
-        <v>290234.95483870961</v>
+        <v>290234.9375</v>
       </c>
       <c r="H273" s="1">
-        <v>161504.564516129</v>
+        <v>161504.5625</v>
       </c>
       <c r="I273" s="1">
         <v>173.48519354838712</v>
       </c>
       <c r="K273" s="1">
         <f t="shared" si="5"/>
-        <v>461267.82712903211</v>
+        <v>461230.05938168237</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -13853,26 +13965,26 @@
         <v>0</v>
       </c>
       <c r="D274" s="1">
-        <v>249.08999999999997</v>
+        <v>249.09</v>
       </c>
       <c r="E274" s="1">
-        <v>190.20000000000002</v>
+        <v>190.19999694824219</v>
       </c>
       <c r="F274" s="1">
-        <v>9116.4999999999982</v>
+        <v>9125.92</v>
       </c>
       <c r="G274" s="1">
-        <v>295358.92333333334</v>
+        <v>295358.90625</v>
       </c>
       <c r="H274" s="1">
-        <v>171982.53</v>
+        <v>171982.53125</v>
       </c>
       <c r="I274" s="1">
-        <v>187.82973333333337</v>
+        <v>187.82973333333334</v>
       </c>
       <c r="K274" s="1">
         <f t="shared" si="5"/>
-        <v>477085.07306666661</v>
+        <v>477094.47723028157</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -13886,23 +13998,23 @@
         <v>331.7161290322581</v>
       </c>
       <c r="E275" s="1">
-        <v>187.09677419354838</v>
+        <v>187.09677124023438</v>
       </c>
       <c r="F275" s="1">
-        <v>8736.7612903225818</v>
+        <v>8745.1096774193556</v>
       </c>
       <c r="G275" s="1">
-        <v>286711.28709677415</v>
+        <v>286711.3125</v>
       </c>
       <c r="H275" s="1">
-        <v>170788.31935483869</v>
+        <v>170788.328125</v>
       </c>
       <c r="I275" s="1">
-        <v>193.8545483870968</v>
+        <v>193.85454838709677</v>
       </c>
       <c r="K275" s="1">
         <f t="shared" si="5"/>
-        <v>466949.03519354836</v>
+        <v>466957.41775107896</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -13916,23 +14028,23 @@
         <v>287.63548387096779</v>
       </c>
       <c r="E276" s="1">
-        <v>159.48387096774195</v>
+        <v>159.48387145996094</v>
       </c>
       <c r="F276" s="1">
-        <v>8508.4387096774171</v>
+        <v>8533.8290322580651</v>
       </c>
       <c r="G276" s="1">
-        <v>289498.40322580654</v>
+        <v>289498.375</v>
       </c>
       <c r="H276" s="1">
-        <v>170521.56774193549</v>
+        <v>170521.5625</v>
       </c>
       <c r="I276" s="1">
-        <v>183.65237096774192</v>
+        <v>183.65237096774194</v>
       </c>
       <c r="K276" s="1">
         <f t="shared" si="5"/>
-        <v>469159.18140322587</v>
+        <v>469184.53825855674</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -13946,23 +14058,23 @@
         <v>277.40714285714284</v>
       </c>
       <c r="E277" s="1">
-        <v>160.46428571428569</v>
+        <v>160.46427917480469</v>
       </c>
       <c r="F277" s="1">
-        <v>8520.2678571428569</v>
+        <v>8538.2071428571435</v>
       </c>
       <c r="G277" s="1">
-        <v>296883.65357142856</v>
+        <v>296883.65625</v>
       </c>
       <c r="H277" s="1">
-        <v>173246.66785714283</v>
+        <v>173246.65625</v>
       </c>
       <c r="I277" s="1">
-        <v>177.44130357142859</v>
+        <v>177.44130357142856</v>
       </c>
       <c r="K277" s="1">
         <f t="shared" si="5"/>
-        <v>479265.90201785718</v>
+        <v>479283.83236846054</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -13973,26 +14085,26 @@
         <v>0</v>
       </c>
       <c r="D278" s="1">
-        <v>236.9</v>
+        <v>236.89999999999998</v>
       </c>
       <c r="E278" s="1">
-        <v>163.32258064516128</v>
+        <v>163.32258605957031</v>
       </c>
       <c r="F278" s="1">
-        <v>8847.9774193548383</v>
+        <v>8877.3419354838716</v>
       </c>
       <c r="G278" s="1">
-        <v>303096.31935483875</v>
+        <v>303096.3125</v>
       </c>
       <c r="H278" s="1">
-        <v>173631.54516129033</v>
+        <v>173631.546875</v>
       </c>
       <c r="I278" s="1">
-        <v>168.34427419354839</v>
+        <v>168.34427419354842</v>
       </c>
       <c r="K278" s="1">
         <f t="shared" si="5"/>
-        <v>486144.40879032266</v>
+        <v>486173.76817073702</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -14003,26 +14115,26 @@
         <v>0</v>
       </c>
       <c r="D279" s="1">
-        <v>123.64999999999999</v>
+        <v>123.65</v>
       </c>
       <c r="E279" s="1">
-        <v>176.33333333333334</v>
+        <v>176.33332824707031</v>
       </c>
       <c r="F279" s="1">
-        <v>8670.086666666668</v>
+        <v>8708.2633333333342</v>
       </c>
       <c r="G279" s="1">
-        <v>310445.98333333328</v>
+        <v>310446</v>
       </c>
       <c r="H279" s="1">
-        <v>176777.96666666659</v>
+        <v>176777.96875</v>
       </c>
       <c r="I279" s="1">
-        <v>169.7381666666667</v>
+        <v>169.73816666666667</v>
       </c>
       <c r="K279" s="1">
         <f t="shared" si="5"/>
-        <v>496363.75816666655</v>
+        <v>496401.95357824705</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -14032,24 +14144,27 @@
       <c r="C280" s="1">
         <v>0</v>
       </c>
+      <c r="D280" s="1">
+        <v>0.48064516129032259</v>
+      </c>
       <c r="E280" s="1">
-        <v>188.38709677419354</v>
+        <v>188.38710021972656</v>
       </c>
       <c r="F280" s="1">
-        <v>8848.4483870967761</v>
+        <v>8871.4709677419341</v>
       </c>
       <c r="G280" s="1">
-        <v>302011.32258064521</v>
+        <v>302011.3125</v>
       </c>
       <c r="H280" s="1">
-        <v>174744.72580645161</v>
+        <v>174744.71875</v>
       </c>
       <c r="I280" s="1">
         <v>189.10001612903227</v>
       </c>
       <c r="K280" s="1">
         <f t="shared" si="5"/>
-        <v>485981.98388709681</v>
+        <v>486005.46997925197</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -14059,24 +14174,27 @@
       <c r="C281" s="1">
         <v>0</v>
       </c>
+      <c r="D281" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E281" s="1">
-        <v>197.83333333333331</v>
+        <v>197.83332824707031</v>
       </c>
       <c r="F281" s="1">
-        <v>8687.6566666666677</v>
+        <v>8678.64</v>
       </c>
       <c r="G281" s="1">
-        <v>298256.19999999995</v>
+        <v>298256.1875</v>
       </c>
       <c r="H281" s="1">
-        <v>173099.81666666668</v>
+        <v>173099.8125</v>
       </c>
       <c r="I281" s="1">
         <v>175.05</v>
       </c>
       <c r="K281" s="1">
         <f t="shared" si="5"/>
-        <v>480416.55666666658</v>
+        <v>480407.9399949137</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
@@ -14086,24 +14204,27 @@
       <c r="C282" s="1">
         <v>0</v>
       </c>
+      <c r="D282" s="1">
+        <v>0.38064516129032261</v>
+      </c>
       <c r="E282" s="1">
-        <v>196.19354838709677</v>
+        <v>196.19354248046875</v>
       </c>
       <c r="F282" s="1">
-        <v>8640.4193548387102</v>
+        <v>8622.1612903225814</v>
       </c>
       <c r="G282" s="1">
-        <v>309144.08387096779</v>
+        <v>309144.09375</v>
       </c>
       <c r="H282" s="1">
-        <v>177231.72258064518</v>
+        <v>177231.71875</v>
       </c>
       <c r="I282" s="1">
         <v>161.24408064516126</v>
       </c>
       <c r="K282" s="1">
         <f t="shared" si="5"/>
-        <v>495373.66343548393</v>
+        <v>495355.79205860948</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -14113,24 +14234,27 @@
       <c r="C283" s="1">
         <v>0</v>
       </c>
+      <c r="D283" s="1">
+        <v>0.40322580645161288</v>
+      </c>
       <c r="E283" s="1">
-        <v>200.12903225806451</v>
+        <v>200.1290283203125</v>
       </c>
       <c r="F283" s="1">
-        <v>8630.3290322580651</v>
+        <v>8659.6064516129027</v>
       </c>
       <c r="G283" s="1">
-        <v>305343.79032258061</v>
+        <v>305343.8125</v>
       </c>
       <c r="H283" s="1">
-        <v>169422.30645161285</v>
+        <v>169422.3125</v>
       </c>
       <c r="I283" s="1">
-        <v>156.69672580645158</v>
+        <v>156.69672580645161</v>
       </c>
       <c r="K283" s="1">
         <f t="shared" si="5"/>
-        <v>483753.25156451605</v>
+        <v>483782.96043154615</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -14140,24 +14264,27 @@
       <c r="C284" s="1">
         <v>0</v>
       </c>
+      <c r="D284" s="1">
+        <v>0</v>
+      </c>
       <c r="E284" s="1">
-        <v>200.16666666666666</v>
+        <v>200.16667175292969</v>
       </c>
       <c r="F284" s="1">
-        <v>8810.44</v>
+        <v>8809.626666666667</v>
       </c>
       <c r="G284" s="1">
-        <v>307787.89</v>
+        <v>307787.875</v>
       </c>
       <c r="H284" s="1">
-        <v>175183.77333333335</v>
+        <v>175183.765625</v>
       </c>
       <c r="I284" s="1">
-        <v>136.90261666666663</v>
+        <v>136.90261666666666</v>
       </c>
       <c r="K284" s="1">
         <f t="shared" si="5"/>
-        <v>492119.17261666671</v>
+        <v>492118.33658008627</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -14167,24 +14294,27 @@
       <c r="C285" s="1">
         <v>0</v>
       </c>
+      <c r="D285" s="1">
+        <v>16.535483870967742</v>
+      </c>
       <c r="E285" s="1">
-        <v>184.25806451612905</v>
+        <v>184.25807189941406</v>
       </c>
       <c r="F285" s="1">
-        <v>9064.6161290322561</v>
+        <v>9060.4258064516125</v>
       </c>
       <c r="G285" s="1">
-        <v>309619.26774193539</v>
+        <v>309619.28125</v>
       </c>
       <c r="H285" s="1">
-        <v>183863.02903225805</v>
+        <v>183863.03125</v>
       </c>
       <c r="I285" s="1">
-        <v>161.20404838709675</v>
+        <v>161.20404838709678</v>
       </c>
       <c r="K285" s="1">
         <f t="shared" si="5"/>
-        <v>502892.37501612899</v>
+        <v>502904.73591060913</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -14194,24 +14324,27 @@
       <c r="C286" s="1">
         <v>0</v>
       </c>
+      <c r="D286" s="1">
+        <v>315.2</v>
+      </c>
       <c r="E286" s="1">
-        <v>173.93333333333334</v>
+        <v>173.93333435058594</v>
       </c>
       <c r="F286" s="1">
-        <v>8908.4133333333339</v>
+        <v>8914.8166666666675</v>
       </c>
       <c r="G286" s="1">
-        <v>311159.01666666666</v>
+        <v>311159</v>
       </c>
       <c r="H286" s="1">
-        <v>187830.15999999989</v>
+        <v>187830.171875</v>
       </c>
       <c r="I286" s="1">
         <v>163.09381666666667</v>
       </c>
       <c r="K286" s="1">
         <f t="shared" si="5"/>
-        <v>508234.61714999989</v>
+        <v>508556.21569268394</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -14221,24 +14354,27 @@
       <c r="C287" s="1">
         <v>0</v>
       </c>
+      <c r="D287" s="1">
+        <v>320.09354838709675</v>
+      </c>
       <c r="E287" s="1">
-        <v>151.67741935483869</v>
+        <v>151.67741394042969</v>
       </c>
       <c r="F287" s="1">
-        <v>8416.8096774193564</v>
+        <v>8422.1612903225814</v>
       </c>
       <c r="G287" s="1">
-        <v>303441.66774193547</v>
+        <v>303441.6875</v>
       </c>
       <c r="H287" s="1">
-        <v>188163.46774193534</v>
+        <v>188163.46875</v>
       </c>
       <c r="I287" s="1">
         <v>165.39524193548388</v>
       </c>
       <c r="K287" s="1">
         <f t="shared" si="5"/>
-        <v>500339.01782258053</v>
+        <v>500664.4837445856</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -14248,24 +14384,27 @@
       <c r="C288" s="1">
         <v>0</v>
       </c>
+      <c r="D288" s="1">
+        <v>254.23870967741934</v>
+      </c>
       <c r="E288" s="1">
-        <v>167.70967741935485</v>
+        <v>167.70967102050781</v>
       </c>
       <c r="F288" s="1">
-        <v>8512.177419354839</v>
+        <v>8509.3387096774186</v>
       </c>
       <c r="G288" s="1">
-        <v>313495.44516129029</v>
+        <v>313543.96875</v>
       </c>
       <c r="H288" s="1">
-        <v>188007.60645161287</v>
+        <v>188007.609375</v>
       </c>
       <c r="I288" s="1">
-        <v>136.75872580645165</v>
+        <v>136.75872580645162</v>
       </c>
       <c r="K288" s="1">
         <f t="shared" si="5"/>
-        <v>510319.69743548374</v>
+        <v>510619.62394118175</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -14275,24 +14414,27 @@
       <c r="C289" s="1">
         <v>0</v>
       </c>
+      <c r="D289" s="1">
+        <v>257.67142857142858</v>
+      </c>
       <c r="E289" s="1">
-        <v>153.14285714285717</v>
+        <v>153.14285278320313</v>
       </c>
       <c r="F289" s="1">
-        <v>8765.2500000000018</v>
+        <v>8766.4642857142862</v>
       </c>
       <c r="G289" s="1">
-        <v>314864.86785714288</v>
+        <v>314895.71875</v>
       </c>
       <c r="H289" s="1">
-        <v>184297.59999999995</v>
+        <v>184297.609375</v>
       </c>
       <c r="I289" s="1">
         <v>136.52096428571429</v>
       </c>
       <c r="K289" s="1">
         <f t="shared" si="5"/>
-        <v>508217.38167857134</v>
+        <v>508507.12765635463</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -14302,24 +14444,27 @@
       <c r="C290" s="1">
         <v>0</v>
       </c>
+      <c r="D290" s="1">
+        <v>210.88064516129032</v>
+      </c>
       <c r="E290" s="1">
-        <v>163.2258064516129</v>
+        <v>163.22579956054688</v>
       </c>
       <c r="F290" s="1">
-        <v>8615.4032258064508</v>
+        <v>8611.0806451612898</v>
       </c>
       <c r="G290" s="1">
-        <v>313224.29677419353</v>
+        <v>313283.90625</v>
       </c>
       <c r="H290" s="1">
-        <v>190282.23225806435</v>
+        <v>190282.21875</v>
       </c>
       <c r="I290" s="1">
         <v>131.42491935483872</v>
       </c>
       <c r="K290" s="1">
         <f t="shared" si="5"/>
-        <v>512416.58298387076</v>
+        <v>512682.73700923799</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -14329,24 +14474,27 @@
       <c r="C291" s="1">
         <v>0</v>
       </c>
+      <c r="D291" s="1">
+        <v>91.563333333333333</v>
+      </c>
       <c r="E291" s="1">
-        <v>176.73333333333335</v>
+        <v>176.73333740234375</v>
       </c>
       <c r="F291" s="1">
-        <v>9052.373333333333</v>
+        <v>9051.4800000000014</v>
       </c>
       <c r="G291" s="1">
-        <v>313943.83333333337</v>
+        <v>314054.625</v>
       </c>
       <c r="H291" s="1">
-        <v>193214.95333333334</v>
+        <v>193214.953125</v>
       </c>
       <c r="I291" s="1">
         <v>148.0009</v>
       </c>
       <c r="K291" s="1">
         <f t="shared" si="5"/>
-        <v>516535.89423333341</v>
+        <v>516737.35569573566</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -14356,24 +14504,27 @@
       <c r="C292" s="1">
         <v>0</v>
       </c>
+      <c r="D292" s="1">
+        <v>7.5064516129032253</v>
+      </c>
       <c r="E292" s="1">
-        <v>179.19354838709677</v>
+        <v>179.19354248046875</v>
       </c>
       <c r="F292" s="1">
-        <v>8868.9419354838719</v>
+        <v>8867.1064516129027</v>
       </c>
       <c r="G292" s="1">
-        <v>274442.97741935484</v>
+        <v>274496.875</v>
       </c>
       <c r="H292" s="1">
-        <v>185487.10000000003</v>
+        <v>185487.09375</v>
       </c>
       <c r="I292" s="1">
         <v>139.51614516129032</v>
       </c>
       <c r="K292" s="1">
         <f t="shared" si="5"/>
-        <v>469117.72904838715</v>
+        <v>469177.29134086758</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -14383,24 +14534,27 @@
       <c r="C293" s="1">
         <v>0</v>
       </c>
+      <c r="D293" s="1">
+        <v>0</v>
+      </c>
       <c r="E293" s="1">
-        <v>180.86666666666667</v>
+        <v>180.86666870117188</v>
       </c>
       <c r="F293" s="1">
-        <v>8660.3733333333348</v>
+        <v>8651.3933333333334</v>
       </c>
       <c r="G293" s="1">
-        <v>292767.98</v>
+        <v>292812.28125</v>
       </c>
       <c r="H293" s="1">
-        <v>180743.55999999991</v>
+        <v>180743.5625</v>
       </c>
       <c r="I293" s="1">
-        <v>151.38736666666665</v>
+        <v>151.38736666666668</v>
       </c>
       <c r="K293" s="1">
         <f t="shared" si="5"/>
-        <v>482504.1673666666</v>
+        <v>482539.49111870117</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -14410,42 +14564,83 @@
       <c r="C294" s="1">
         <v>0</v>
       </c>
+      <c r="D294" s="1">
+        <v>0</v>
+      </c>
       <c r="E294" s="1">
-        <v>181.22580645161287</v>
+        <v>181.22579956054688</v>
       </c>
       <c r="F294" s="1">
-        <v>8969.2741935483864</v>
+        <v>8930.8645161290315</v>
       </c>
       <c r="G294" s="1">
-        <v>313554.35806451604</v>
+        <v>313557.8125</v>
       </c>
       <c r="H294" s="1">
-        <v>187091.01612903224</v>
+        <v>187091.015625</v>
       </c>
       <c r="I294" s="1">
-        <v>138.39966129032254</v>
+        <v>138.39966129032257</v>
       </c>
       <c r="K294" s="1">
         <f t="shared" si="5"/>
-        <v>509934.27385483863</v>
+        <v>509899.31810197991</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
       </c>
+      <c r="D295" s="1">
+        <v>0</v>
+      </c>
+      <c r="E295" s="1">
+        <v>186.90322875976563</v>
+      </c>
+      <c r="F295" s="1">
+        <v>8763.351612903225</v>
+      </c>
       <c r="G295" s="1">
-        <v>314919.49032258062</v>
+        <v>314809.84375</v>
+      </c>
+      <c r="H295" s="1">
+        <v>186857.125</v>
+      </c>
+      <c r="K295" s="1">
+        <f t="shared" si="5"/>
+        <v>510617.223591663</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45170</v>
       </c>
+      <c r="D296" s="1">
+        <v>0</v>
+      </c>
+      <c r="E296" s="1">
+        <v>186.53334045410156</v>
+      </c>
+      <c r="F296" s="1">
+        <v>8763.66</v>
+      </c>
+      <c r="G296" s="1">
+        <v>306052.34375</v>
+      </c>
+      <c r="H296" s="1">
+        <v>184120.046875</v>
+      </c>
+      <c r="K296" s="1">
+        <f t="shared" si="5"/>
+        <v>499122.58396545408</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45200</v>
+      </c>
+      <c r="G297" s="1">
+        <v>307754.25</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -14467,8 +14662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="L295" sqref="L295"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20930,11 +21125,11 @@
       <c r="H228" s="1">
         <v>5212.7357036903222</v>
       </c>
-      <c r="I228" s="26">
+      <c r="I228" s="25">
         <v>0.47650217616129031</v>
       </c>
       <c r="K228" s="1">
-        <f t="shared" ref="K228:K294" si="5">SUM(C228:I228)</f>
+        <f t="shared" ref="K228:K296" si="5">SUM(C228:I228)</f>
         <v>16520.729929684676</v>
       </c>
       <c r="M228" s="2" t="s">
@@ -20963,7 +21158,7 @@
       <c r="H229" s="1">
         <v>5199.0010339128567</v>
       </c>
-      <c r="I229" s="26">
+      <c r="I229" s="25">
         <v>0.13143967996428571</v>
       </c>
       <c r="K229" s="1">
@@ -20993,7 +21188,7 @@
       <c r="H230" s="1">
         <v>5250.0212001245163</v>
       </c>
-      <c r="I230" s="26">
+      <c r="I230" s="25">
         <v>1.8181323096774196E-2</v>
       </c>
       <c r="K230" s="1">
@@ -21023,7 +21218,7 @@
       <c r="H231" s="1">
         <v>5296.7756420266669</v>
       </c>
-      <c r="I231" s="26">
+      <c r="I231" s="25">
         <v>0.2877374750333333</v>
       </c>
       <c r="K231" s="1">
@@ -21053,7 +21248,7 @@
       <c r="H232" s="1">
         <v>5053.6240646193546</v>
       </c>
-      <c r="I232" s="26">
+      <c r="I232" s="25">
         <v>0.29479716735483869</v>
       </c>
       <c r="K232" s="1">
@@ -21083,7 +21278,7 @@
       <c r="H233" s="1">
         <v>5031.8430408046715</v>
       </c>
-      <c r="I233" s="26">
+      <c r="I233" s="25">
         <v>0.34264579226666664</v>
       </c>
       <c r="K233" s="1">
@@ -21113,7 +21308,7 @@
       <c r="H234" s="1">
         <v>5317.6991248271015</v>
       </c>
-      <c r="I234" s="26">
+      <c r="I234" s="25">
         <v>0.17012523754838707</v>
       </c>
       <c r="K234" s="1">
@@ -21143,7 +21338,7 @@
       <c r="H235" s="1">
         <v>5157.9656070419296</v>
       </c>
-      <c r="I235" s="26">
+      <c r="I235" s="25">
         <v>0.130515926516129</v>
       </c>
       <c r="K235" s="1">
@@ -21173,7 +21368,7 @@
       <c r="H236" s="1">
         <v>5175.1241433773357</v>
       </c>
-      <c r="I236" s="26">
+      <c r="I236" s="25">
         <v>0.18563708066666665</v>
       </c>
       <c r="K236" s="1">
@@ -21203,7 +21398,7 @@
       <c r="H237" s="1">
         <v>4701.9891877451673</v>
       </c>
-      <c r="I237" s="26">
+      <c r="I237" s="25">
         <v>1.3715512827516134</v>
       </c>
       <c r="K237" s="1">
@@ -22006,23 +22201,23 @@
         <v>12.12145165483871</v>
       </c>
       <c r="E264" s="1">
-        <v>6.5969951161290314</v>
+        <v>6.5969953247192388</v>
       </c>
       <c r="F264" s="1">
-        <v>318.3497271935484</v>
+        <v>318.36465045999995</v>
       </c>
       <c r="G264" s="1">
-        <v>9888.4446774599983</v>
+        <v>9888.4455603250008</v>
       </c>
       <c r="H264" s="1">
-        <v>5547.3000725148377</v>
+        <v>5547.3001365937498</v>
       </c>
       <c r="I264" s="1">
-        <v>5.9924644143903221</v>
+        <v>5.9924644143903212</v>
       </c>
       <c r="K264" s="1">
         <f t="shared" si="5"/>
-        <v>15778.805388353743</v>
+        <v>15778.821258772699</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -22036,23 +22231,23 @@
         <v>11.415192202857142</v>
       </c>
       <c r="E265" s="1">
-        <v>6.620226264285713</v>
+        <v>6.6202260333465572</v>
       </c>
       <c r="F265" s="1">
-        <v>297.55829712857138</v>
+        <v>297.56422493642856</v>
       </c>
       <c r="G265" s="1">
-        <v>9583.3835413142879</v>
+        <v>9583.3825953875003</v>
       </c>
       <c r="H265" s="1">
-        <v>5572.7065634150003</v>
+        <v>5572.7062323406244</v>
       </c>
       <c r="I265" s="1">
-        <v>5.6882323495071416</v>
+        <v>5.6882323495071425</v>
       </c>
       <c r="K265" s="1">
         <f t="shared" si="5"/>
-        <v>15477.372052674509</v>
+        <v>15477.376703250264</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
@@ -22063,26 +22258,26 @@
         <v>0</v>
       </c>
       <c r="D266" s="1">
-        <v>10.526370915483872</v>
+        <v>10.52637091548387</v>
       </c>
       <c r="E266" s="1">
-        <v>6.4944688580645158</v>
+        <v>6.4944689623596181</v>
       </c>
       <c r="F266" s="1">
-        <v>320.80443364774186</v>
+        <v>320.53365040838713</v>
       </c>
       <c r="G266" s="1">
-        <v>10095.519467070324</v>
+        <v>10095.520442493749</v>
       </c>
       <c r="H266" s="1">
-        <v>5586.0327840406444</v>
+        <v>5586.0325277249995</v>
       </c>
       <c r="I266" s="1">
-        <v>6.030293755664518</v>
+        <v>6.0302937556645171</v>
       </c>
       <c r="K266" s="1">
         <f t="shared" si="5"/>
-        <v>16025.407818287924</v>
+        <v>16025.137754260644</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -22093,26 +22288,26 @@
         <v>0</v>
       </c>
       <c r="D267" s="1">
-        <v>8.6908053446666678</v>
+        <v>8.690805344666666</v>
       </c>
       <c r="E267" s="1">
-        <v>6.9381417466666671</v>
+        <v>6.9381414951995843</v>
       </c>
       <c r="F267" s="1">
-        <v>332.27271709333326</v>
+        <v>332.26883248733333</v>
       </c>
       <c r="G267" s="1">
-        <v>10149.910208969333</v>
+        <v>10149.910444399999</v>
       </c>
       <c r="H267" s="1">
-        <v>5698.9430154400006</v>
+        <v>5698.9432361562494</v>
       </c>
       <c r="I267" s="1">
         <v>6.6858995646699997</v>
       </c>
       <c r="K267" s="1">
         <f t="shared" si="5"/>
-        <v>16203.440788158672</v>
+        <v>16203.437359448117</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -22123,26 +22318,26 @@
         <v>0</v>
       </c>
       <c r="D268" s="1">
-        <v>1.1391806451612904E-4</v>
+        <v>1.1391806451612903E-4</v>
       </c>
       <c r="E268" s="1">
-        <v>6.8738160129032257</v>
+        <v>6.8738158564605705</v>
       </c>
       <c r="F268" s="1">
-        <v>325.01313654129029</v>
+        <v>325.05528622516124</v>
       </c>
       <c r="G268" s="1">
-        <v>9968.012230556129</v>
+        <v>9968.0115612874997</v>
       </c>
       <c r="H268" s="1">
-        <v>5548.300500957419</v>
+        <v>5548.3005329968755</v>
       </c>
       <c r="I268" s="1">
-        <v>6.7676375416903225</v>
+        <v>6.7676375416903216</v>
       </c>
       <c r="K268" s="1">
         <f t="shared" si="5"/>
-        <v>15854.967435527496</v>
+        <v>15855.008947825752</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
@@ -22153,26 +22348,26 @@
         <v>0</v>
       </c>
       <c r="D269" s="1">
-        <v>7.6514966666666661E-3</v>
+        <v>7.651496666666667E-3</v>
       </c>
       <c r="E269" s="1">
-        <v>7.2418473066666671</v>
+        <v>7.2418472707427979</v>
       </c>
       <c r="F269" s="1">
-        <v>309.37308243866664</v>
+        <v>309.4002746806666</v>
       </c>
       <c r="G269" s="1">
-        <v>9867.4479111686651</v>
+        <v>9867.4488234625005</v>
       </c>
       <c r="H269" s="1">
-        <v>5547.91836281</v>
+        <v>5547.9181420937493</v>
       </c>
       <c r="I269" s="1">
         <v>5.8958554593099999</v>
       </c>
       <c r="K269" s="1">
         <f t="shared" si="5"/>
-        <v>15737.884710679975</v>
+        <v>15737.912594463636</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
@@ -22186,23 +22381,23 @@
         <v>2.2783612903225807E-3</v>
       </c>
       <c r="E270" s="1">
-        <v>7.5174530774193551</v>
+        <v>7.5174532164794918</v>
       </c>
       <c r="F270" s="1">
-        <v>317.093552696129</v>
+        <v>317.11804508</v>
       </c>
       <c r="G270" s="1">
-        <v>10077.697213712901</v>
+        <v>10077.696501724999</v>
       </c>
       <c r="H270" s="1">
-        <v>5616.4104029606442</v>
+        <v>5616.4108087937502</v>
       </c>
       <c r="I270" s="1">
-        <v>1.7527336576096773</v>
+        <v>1.7527336576096775</v>
       </c>
       <c r="K270" s="1">
         <f t="shared" si="5"/>
-        <v>16020.473634465994</v>
+        <v>16020.497820834127</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
@@ -22213,26 +22408,26 @@
         <v>0</v>
       </c>
       <c r="D271" s="1">
-        <v>7.5185922580645161E-3</v>
+        <v>7.5185922580645152E-3</v>
       </c>
       <c r="E271" s="1">
-        <v>5.9351311612903217</v>
+        <v>5.9351310917602538</v>
       </c>
       <c r="F271" s="1">
-        <v>315.18474160709673</v>
+        <v>315.34297379870969</v>
       </c>
       <c r="G271" s="1">
-        <v>10214.095413408386</v>
+        <v>10214.095833481249</v>
       </c>
       <c r="H271" s="1">
-        <v>5815.541913768383</v>
+        <v>5815.5415613343748</v>
       </c>
       <c r="I271" s="1">
         <v>1.0811616053129032</v>
       </c>
       <c r="K271" s="1">
         <f t="shared" si="5"/>
-        <v>16351.845880142728</v>
+        <v>16352.004179903664</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
@@ -22246,23 +22441,23 @@
         <v>5.6267929333333327E-2</v>
       </c>
       <c r="E272" s="1">
-        <v>5.48082592</v>
+        <v>5.4808258122283933</v>
       </c>
       <c r="F272" s="1">
-        <v>320.83773189800002</v>
+        <v>320.65280110933338</v>
       </c>
       <c r="G272" s="1">
-        <v>10022.56776253</v>
+        <v>10022.568203962499</v>
       </c>
       <c r="H272" s="1">
-        <v>5917.7676977486663</v>
+        <v>5917.7673961031251</v>
       </c>
       <c r="I272" s="1">
-        <v>6.7215308189166665</v>
+        <v>6.7215308189166674</v>
       </c>
       <c r="K272" s="1">
         <f t="shared" si="5"/>
-        <v>16273.431816844915</v>
+        <v>16273.247025735436</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -22273,26 +22468,26 @@
         <v>0</v>
       </c>
       <c r="D273" s="1">
-        <v>2.4606301935483875E-2</v>
+        <v>2.4606301935483871E-2</v>
       </c>
       <c r="E273" s="1">
-        <v>6.7690113935483867</v>
+        <v>6.7690112023406988</v>
       </c>
       <c r="F273" s="1">
-        <v>323.56819981096777</v>
+        <v>322.23513062000001</v>
       </c>
       <c r="G273" s="1">
-        <v>10249.531336147094</v>
+        <v>10249.530723837499</v>
       </c>
       <c r="H273" s="1">
-        <v>5703.4690940612891</v>
+        <v>5703.4690228624995</v>
       </c>
       <c r="I273" s="1">
         <v>6.1265602160838712</v>
       </c>
       <c r="K273" s="1">
         <f t="shared" si="5"/>
-        <v>16289.488807930918</v>
+        <v>16288.155055040357</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
@@ -22303,26 +22498,26 @@
         <v>0</v>
       </c>
       <c r="D274" s="1">
-        <v>8.7965137140000014</v>
+        <v>8.7965137139999996</v>
       </c>
       <c r="E274" s="1">
-        <v>6.7168369200000004</v>
+        <v>6.7168368122283937</v>
       </c>
       <c r="F274" s="1">
-        <v>321.94555089999994</v>
+        <v>322.27821443200003</v>
       </c>
       <c r="G274" s="1">
-        <v>10430.482233947334</v>
+        <v>10430.48163065625</v>
       </c>
       <c r="H274" s="1">
-        <v>6073.4942539379999</v>
+        <v>6073.4942980812493</v>
       </c>
       <c r="I274" s="1">
-        <v>6.6331319007733338</v>
+        <v>6.6331319007733329</v>
       </c>
       <c r="K274" s="1">
         <f t="shared" si="5"/>
-        <v>16848.068521320107</v>
+        <v>16848.4006255965</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -22336,23 +22531,23 @@
         <v>11.714422410322582</v>
       </c>
       <c r="E275" s="1">
-        <v>6.6072477419354838</v>
+        <v>6.6072476376403806</v>
       </c>
       <c r="F275" s="1">
-        <v>308.5352302632258</v>
+        <v>308.83005021419353</v>
       </c>
       <c r="G275" s="1">
-        <v>10125.094419307739</v>
+        <v>10125.0953164125</v>
       </c>
       <c r="H275" s="1">
-        <v>6031.3211826883871</v>
+        <v>6031.3214924031245</v>
       </c>
       <c r="I275" s="1">
-        <v>6.8458958344709684</v>
+        <v>6.8458958344709666</v>
       </c>
       <c r="K275" s="1">
         <f t="shared" si="5"/>
-        <v>16490.118398246079</v>
+        <v>16490.414424912251</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -22366,23 +22561,23 @@
         <v>10.157732058709678</v>
       </c>
       <c r="E276" s="1">
-        <v>5.6321091096774198</v>
+        <v>5.6321091270599357</v>
       </c>
       <c r="F276" s="1">
-        <v>300.47210965677414</v>
+        <v>301.36875874258067</v>
       </c>
       <c r="G276" s="1">
-        <v>10223.520310558068</v>
+        <v>10223.519313774999</v>
       </c>
       <c r="H276" s="1">
-        <v>6021.9009561793546</v>
+        <v>6021.9007710624992</v>
       </c>
       <c r="I276" s="1">
-        <v>6.4856100197774191</v>
+        <v>6.48561001977742</v>
       </c>
       <c r="K276" s="1">
         <f t="shared" si="5"/>
-        <v>16568.168827582358</v>
+        <v>16569.064294785625</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
@@ -22393,26 +22588,26 @@
         <v>0</v>
       </c>
       <c r="D277" s="1">
-        <v>9.7965222871428583</v>
+        <v>9.7965222871428566</v>
       </c>
       <c r="E277" s="1">
-        <v>5.6667320642857133</v>
+        <v>5.6667318333465575</v>
       </c>
       <c r="F277" s="1">
-        <v>300.88985126785713</v>
+        <v>301.52336996714286</v>
       </c>
       <c r="G277" s="1">
-        <v>10484.327472413572</v>
+        <v>10484.32756700625</v>
       </c>
       <c r="H277" s="1">
-        <v>6118.1367767078555</v>
+        <v>6118.1363668062495</v>
       </c>
       <c r="I277" s="1">
-        <v>6.2662686591035719</v>
+        <v>6.266268659103571</v>
       </c>
       <c r="K277" s="1">
         <f t="shared" si="5"/>
-        <v>16925.083623399816</v>
+        <v>16925.716826559237</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -22423,26 +22618,26 @@
         <v>0</v>
       </c>
       <c r="D278" s="1">
-        <v>8.3660287400000009</v>
+        <v>8.3660287399999991</v>
       </c>
       <c r="E278" s="1">
-        <v>5.7676716064516125</v>
+        <v>5.7676717976593013</v>
       </c>
       <c r="F278" s="1">
-        <v>312.4627833735484</v>
+        <v>313.49977951483868</v>
       </c>
       <c r="G278" s="1">
-        <v>10703.725279488388</v>
+        <v>10703.7250374125</v>
       </c>
       <c r="H278" s="1">
-        <v>6131.7285647529025</v>
+        <v>6131.728625271875</v>
       </c>
       <c r="I278" s="1">
-        <v>5.9450107054354842</v>
+        <v>5.945010705435485</v>
       </c>
       <c r="K278" s="1">
         <f t="shared" si="5"/>
-        <v>17167.995338666726</v>
+        <v>17169.032153442309</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
@@ -22453,26 +22648,26 @@
         <v>0</v>
       </c>
       <c r="D279" s="1">
-        <v>4.366650289999999</v>
+        <v>4.3666502899999999</v>
       </c>
       <c r="E279" s="1">
-        <v>6.2271411333333333</v>
+        <v>6.227140953713989</v>
       </c>
       <c r="F279" s="1">
-        <v>306.18064259866668</v>
+        <v>307.52883631133335</v>
       </c>
       <c r="G279" s="1">
-        <v>10963.275723023331</v>
+        <v>10963.276311600001</v>
       </c>
       <c r="H279" s="1">
-        <v>6242.8431816466637</v>
+        <v>6242.8432552187505</v>
       </c>
       <c r="I279" s="1">
-        <v>5.9942354605666672</v>
+        <v>5.9942354605666663</v>
       </c>
       <c r="K279" s="1">
         <f t="shared" si="5"/>
-        <v>17528.887574152563</v>
+        <v>17530.236429834364</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
@@ -22482,24 +22677,27 @@
       <c r="C280" s="1">
         <v>0</v>
       </c>
+      <c r="D280" s="1">
+        <v>1.6973791612903227E-2</v>
+      </c>
       <c r="E280" s="1">
-        <v>6.6528149677419348</v>
+        <v>6.6528150894195557</v>
       </c>
       <c r="F280" s="1">
-        <v>312.47941541096776</v>
+        <v>313.29244863741934</v>
       </c>
       <c r="G280" s="1">
-        <v>10665.409052406452</v>
+        <v>10665.408696412498</v>
       </c>
       <c r="H280" s="1">
-        <v>6171.040093964516</v>
+        <v>6171.0398447687503</v>
       </c>
       <c r="I280" s="1">
         <v>6.6779914295903229</v>
       </c>
       <c r="K280" s="1">
         <f t="shared" si="5"/>
-        <v>17162.259368179268</v>
+        <v>17163.088770129292</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
@@ -22509,24 +22707,27 @@
       <c r="C281" s="1">
         <v>0</v>
       </c>
+      <c r="D281" s="1">
+        <v>1.4714416666666667E-2</v>
+      </c>
       <c r="E281" s="1">
-        <v>6.9864050333333321</v>
+        <v>6.9864048537139887</v>
       </c>
       <c r="F281" s="1">
-        <v>306.80112012066667</v>
+        <v>306.48270014399998</v>
       </c>
       <c r="G281" s="1">
-        <v>10532.79840052</v>
+        <v>10532.7979590875</v>
       </c>
       <c r="H281" s="1">
-        <v>6112.950785656667</v>
+        <v>6112.9506385125005</v>
       </c>
       <c r="I281" s="1">
         <v>6.1818207300000001</v>
       </c>
       <c r="K281" s="1">
         <f t="shared" si="5"/>
-        <v>16965.718532060666</v>
+        <v>16965.414237744382</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
@@ -22536,24 +22737,27 @@
       <c r="C282" s="1">
         <v>0</v>
       </c>
+      <c r="D282" s="1">
+        <v>1.3442331612903227E-2</v>
+      </c>
       <c r="E282" s="1">
-        <v>6.928496683870967</v>
+        <v>6.9284964752807614</v>
       </c>
       <c r="F282" s="1">
-        <v>305.1329533483871</v>
+        <v>304.48817710322584</v>
       </c>
       <c r="G282" s="1">
-        <v>10917.299664269678</v>
+        <v>10917.300013143751</v>
       </c>
       <c r="H282" s="1">
-        <v>6258.8673902464516</v>
+        <v>6258.8672549687499</v>
       </c>
       <c r="I282" s="1">
         <v>5.6942702103516121</v>
       </c>
       <c r="K282" s="1">
         <f t="shared" si="5"/>
-        <v>17493.922774758739</v>
+        <v>17493.291654232973</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -22563,24 +22767,27 @@
       <c r="C283" s="1">
         <v>0</v>
       </c>
+      <c r="D283" s="1">
+        <v>1.4239758064516128E-2</v>
+      </c>
       <c r="E283" s="1">
-        <v>7.0674767225806443</v>
+        <v>7.0674765835205084</v>
       </c>
       <c r="F283" s="1">
-        <v>304.77661764258062</v>
+        <v>305.81053799612897</v>
       </c>
       <c r="G283" s="1">
-        <v>10783.093817725805</v>
+        <v>10783.0946009125</v>
       </c>
       <c r="H283" s="1">
-        <v>5983.0809834161273</v>
+        <v>5983.0811970124996</v>
       </c>
       <c r="I283" s="1">
-        <v>5.5336821931645153</v>
+        <v>5.5336821931645161</v>
       </c>
       <c r="K283" s="1">
         <f t="shared" si="5"/>
-        <v>17083.552577700255</v>
+        <v>17084.601734455879</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
@@ -22590,24 +22797,27 @@
       <c r="C284" s="1">
         <v>0</v>
       </c>
+      <c r="D284" s="1">
+        <v>0</v>
+      </c>
       <c r="E284" s="1">
-        <v>7.0688057666666664</v>
+        <v>7.0688059462860107</v>
       </c>
       <c r="F284" s="1">
-        <v>311.13716442399999</v>
+        <v>311.10844188266663</v>
       </c>
       <c r="G284" s="1">
-        <v>10869.406220194</v>
+        <v>10869.405690475</v>
       </c>
       <c r="H284" s="1">
-        <v>6186.5448817573333</v>
+        <v>6186.5446095406251</v>
       </c>
       <c r="I284" s="1">
-        <v>4.834661146536666</v>
+        <v>4.8346611465366669</v>
       </c>
       <c r="K284" s="1">
         <f t="shared" si="5"/>
-        <v>17378.991733288534</v>
+        <v>17378.962208991114</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
@@ -22617,24 +22827,27 @@
       <c r="C285" s="1">
         <v>0</v>
       </c>
+      <c r="D285" s="1">
+        <v>0.58394399870967739</v>
+      </c>
       <c r="E285" s="1">
-        <v>6.5069998451612907</v>
+        <v>6.5070001058990474</v>
       </c>
       <c r="F285" s="1">
-        <v>320.1132927503225</v>
+        <v>319.96531318451605</v>
       </c>
       <c r="G285" s="1">
-        <v>10934.080592599352</v>
+        <v>10934.081069631249</v>
       </c>
       <c r="H285" s="1">
-        <v>6493.0493250625805</v>
+        <v>6493.0494033812502</v>
       </c>
       <c r="I285" s="1">
-        <v>5.6928564871709675</v>
+        <v>5.6928564871709684</v>
       </c>
       <c r="K285" s="1">
         <f t="shared" si="5"/>
-        <v>17759.443066744585</v>
+        <v>17759.879586788797</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
@@ -22644,24 +22857,27 @@
       <c r="C286" s="1">
         <v>0</v>
       </c>
+      <c r="D286" s="1">
+        <v>11.131161919999998</v>
+      </c>
       <c r="E286" s="1">
-        <v>6.1423860933333332</v>
+        <v>6.1423861292572024</v>
       </c>
       <c r="F286" s="1">
-        <v>314.59705350133333</v>
+        <v>314.82318465666668</v>
       </c>
       <c r="G286" s="1">
-        <v>10988.456209976666</v>
+        <v>10988.455621399999</v>
       </c>
       <c r="H286" s="1">
-        <v>6633.1469683359965</v>
+        <v>6633.1473876968748</v>
       </c>
       <c r="I286" s="1">
         <v>5.7595928980566669</v>
       </c>
       <c r="K286" s="1">
         <f t="shared" si="5"/>
-        <v>17948.102210805384</v>
+        <v>17959.459334700852</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
@@ -22671,24 +22887,27 @@
       <c r="C287" s="1">
         <v>0</v>
       </c>
+      <c r="D287" s="1">
+        <v>11.303975623870967</v>
+      </c>
       <c r="E287" s="1">
-        <v>5.3564273935483868</v>
+        <v>5.356427202340698</v>
       </c>
       <c r="F287" s="1">
-        <v>297.23626703419359</v>
+        <v>297.42525710322582</v>
       </c>
       <c r="G287" s="1">
-        <v>10715.921119639353</v>
+        <v>10715.9218173875</v>
       </c>
       <c r="H287" s="1">
-        <v>6644.9175979193496</v>
+        <v>6644.9176335187494</v>
       </c>
       <c r="I287" s="1">
         <v>5.8408668108548385</v>
       </c>
       <c r="K287" s="1">
         <f t="shared" si="5"/>
-        <v>17669.272278797296</v>
+        <v>17680.765977646537</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
@@ -22698,24 +22917,27 @@
       <c r="C288" s="1">
         <v>0</v>
       </c>
+      <c r="D288" s="1">
+        <v>8.9783383367741934</v>
+      </c>
       <c r="E288" s="1">
-        <v>5.9226001741935486</v>
+        <v>5.9225999482208254</v>
       </c>
       <c r="F288" s="1">
-        <v>300.60414069354835</v>
+        <v>300.50389279677415</v>
       </c>
       <c r="G288" s="1">
-        <v>11070.966247692902</v>
+        <v>11072.679838818749</v>
       </c>
       <c r="H288" s="1">
-        <v>6639.4134187961281</v>
+        <v>6639.4135220343742</v>
       </c>
       <c r="I288" s="1">
-        <v>4.8295796983645172</v>
+        <v>4.8295796983645163</v>
       </c>
       <c r="K288" s="1">
         <f t="shared" si="5"/>
-        <v>18021.735987055137</v>
+        <v>18032.32777163326</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
@@ -22725,24 +22947,27 @@
       <c r="C289" s="1">
         <v>0</v>
       </c>
+      <c r="D289" s="1">
+        <v>9.0995634314285709</v>
+      </c>
       <c r="E289" s="1">
-        <v>5.4081787428571433</v>
+        <v>5.4081785888977052</v>
       </c>
       <c r="F289" s="1">
-        <v>309.54129765000005</v>
+        <v>309.58417966428573</v>
       </c>
       <c r="G289" s="1">
-        <v>11119.326862427857</v>
+        <v>11120.41634936875</v>
       </c>
       <c r="H289" s="1">
-        <v>6508.3960249599986</v>
+        <v>6508.3963560343755</v>
       </c>
       <c r="I289" s="1">
         <v>4.8211832453642858</v>
       </c>
       <c r="K289" s="1">
         <f t="shared" si="5"/>
-        <v>17947.493547026079</v>
+        <v>17957.725810333101</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
@@ -22752,24 +22977,27 @@
       <c r="C290" s="1">
         <v>0</v>
       </c>
+      <c r="D290" s="1">
+        <v>7.4471656316129025</v>
+      </c>
       <c r="E290" s="1">
-        <v>5.7642540645161287</v>
+        <v>5.7642538211608878</v>
       </c>
       <c r="F290" s="1">
-        <v>304.24951875806448</v>
+        <v>304.09686855161283</v>
       </c>
       <c r="G290" s="1">
-        <v>11061.390750861934</v>
+        <v>11063.495835656249</v>
       </c>
       <c r="H290" s="1">
-        <v>6719.7409193006388</v>
+        <v>6719.7404422687496</v>
       </c>
       <c r="I290" s="1">
         <v>4.641218457048387</v>
       </c>
       <c r="K290" s="1">
         <f t="shared" si="5"/>
-        <v>18095.786661442198</v>
+        <v>18105.185784386431</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
@@ -22779,24 +23007,27 @@
       <c r="C291" s="1">
         <v>0</v>
       </c>
+      <c r="D291" s="1">
+        <v>3.2335224913333329</v>
+      </c>
       <c r="E291" s="1">
-        <v>6.2412669733333335</v>
+        <v>6.2412671170288085</v>
       </c>
       <c r="F291" s="1">
-        <v>319.68094331733334</v>
+        <v>319.64939560800002</v>
       </c>
       <c r="G291" s="1">
-        <v>11086.800896633335</v>
+        <v>11090.713460024999</v>
       </c>
       <c r="H291" s="1">
-        <v>6823.308790985333</v>
+        <v>6823.3087836281247</v>
       </c>
       <c r="I291" s="1">
         <v>5.2265925831399995</v>
       </c>
       <c r="K291" s="1">
         <f t="shared" si="5"/>
-        <v>18241.258490492477</v>
+        <v>18248.373021452626</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
@@ -22806,24 +23037,27 @@
       <c r="C292" s="1">
         <v>0</v>
       </c>
+      <c r="D292" s="1">
+        <v>0.26508733612903224</v>
+      </c>
       <c r="E292" s="1">
-        <v>6.3281484838709678</v>
+        <v>6.3281482752807614</v>
       </c>
       <c r="F292" s="1">
-        <v>313.20313687483872</v>
+        <v>313.13831749612905</v>
       </c>
       <c r="G292" s="1">
-        <v>9691.8439703735494</v>
+        <v>9693.7473418749996</v>
       </c>
       <c r="H292" s="1">
-        <v>6550.4027416600011</v>
+        <v>6550.4025209437505</v>
       </c>
       <c r="I292" s="1">
         <v>4.9269568599129032</v>
       </c>
       <c r="K292" s="1">
         <f t="shared" si="5"/>
-        <v>16566.704954252171</v>
+        <v>16568.808372786199</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
@@ -22833,24 +23067,27 @@
       <c r="C293" s="1">
         <v>0</v>
       </c>
+      <c r="D293" s="1">
+        <v>0</v>
+      </c>
       <c r="E293" s="1">
-        <v>6.3872339866666668</v>
+        <v>6.3872340585144043</v>
       </c>
       <c r="F293" s="1">
-        <v>305.83762011733336</v>
+        <v>305.52049500933333</v>
       </c>
       <c r="G293" s="1">
-        <v>10338.984106507998</v>
+        <v>10340.548587431251</v>
       </c>
       <c r="H293" s="1">
-        <v>6382.8865239759971</v>
+        <v>6382.8866122624995</v>
       </c>
       <c r="I293" s="1">
-        <v>5.3461842988866666</v>
+        <v>5.3461842988866675</v>
       </c>
       <c r="K293" s="1">
         <f t="shared" si="5"/>
-        <v>17039.441668886884</v>
+        <v>17040.689113060485</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
@@ -22860,42 +23097,83 @@
       <c r="C294" s="1">
         <v>0</v>
       </c>
+      <c r="D294" s="1">
+        <v>0</v>
+      </c>
       <c r="E294" s="1">
-        <v>6.3999168645161282</v>
+        <v>6.3999166211608882</v>
       </c>
       <c r="F294" s="1">
-        <v>316.74633043548386</v>
+        <v>315.38990804129025</v>
       </c>
       <c r="G294" s="1">
-        <v>11073.046733305158</v>
+        <v>11073.1687253125</v>
       </c>
       <c r="H294" s="1">
-        <v>6607.0443981903218</v>
+        <v>6607.0443803906255</v>
       </c>
       <c r="I294" s="1">
-        <v>4.8875286786032248</v>
+        <v>4.8875286786032257</v>
       </c>
       <c r="K294" s="1">
         <f t="shared" si="5"/>
-        <v>18008.124907474081</v>
+        <v>18006.890459044178</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>45139</v>
       </c>
+      <c r="D295" s="1">
+        <v>0</v>
+      </c>
+      <c r="E295" s="1">
+        <v>6.6004127623596185</v>
+      </c>
+      <c r="F295" s="1">
+        <v>309.47425686903222</v>
+      </c>
       <c r="G295" s="1">
-        <v>11121.255832945804</v>
+        <v>11117.38370809375</v>
+      </c>
+      <c r="H295" s="1">
+        <v>6598.784626525</v>
+      </c>
+      <c r="K295" s="1">
+        <f t="shared" si="5"/>
+        <v>18032.243004250144</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>45170</v>
       </c>
+      <c r="D296" s="1">
+        <v>0</v>
+      </c>
+      <c r="E296" s="1">
+        <v>6.5873503048004141</v>
+      </c>
+      <c r="F296" s="1">
+        <v>309.48514743599998</v>
+      </c>
+      <c r="G296" s="1">
+        <v>10808.116098593749</v>
+      </c>
+      <c r="H296" s="1">
+        <v>6502.1258073718755</v>
+      </c>
+      <c r="K296" s="1">
+        <f t="shared" si="5"/>
+        <v>17626.314403706427</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>45200</v>
+      </c>
+      <c r="G297" s="1">
+        <v>10868.21823705</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
@@ -22914,29 +23192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">880</parentID>
-    <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
-    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94ca56df59429f33e9578fc51d07b71b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a936563a2c046556d5fbda508711cd0" ns2:_="" ns3:_="">
     <xsd:import namespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
@@ -23152,27 +23407,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD42CCA7-425B-4195-84F5-62430F0E680F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
-    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0472C2CF-FBB5-43AC-B188-E906927426F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">1109</parentID>
+    <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
+    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF6E7C-603E-417E-B839-534D5E304EFB}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBBB026C-2114-45DE-92A2-4291C996E22B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -23188,4 +23447,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C70269-AA85-4252-8748-F469E573FBB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B83C2F70-3E90-457E-9657-392B8136BCE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>